--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13942.95480982489</v>
+        <v>14192.73183853424</v>
       </c>
       <c r="AB2" t="n">
-        <v>19077.36589055674</v>
+        <v>19419.12184062169</v>
       </c>
       <c r="AC2" t="n">
-        <v>17256.64886521248</v>
+        <v>17565.7881070607</v>
       </c>
       <c r="AD2" t="n">
-        <v>13942954.80982489</v>
+        <v>14192731.83853424</v>
       </c>
       <c r="AE2" t="n">
-        <v>19077365.89055674</v>
+        <v>19419121.84062169</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305049455684169e-07</v>
+        <v>7.277899705033552e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.07083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>17256648.86521248</v>
+        <v>17565788.1070607</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4667.415445534004</v>
+        <v>4792.389345497525</v>
       </c>
       <c r="AB3" t="n">
-        <v>6386.163724416919</v>
+        <v>6557.158527806363</v>
       </c>
       <c r="AC3" t="n">
-        <v>5776.677221595408</v>
+        <v>5931.352520942071</v>
       </c>
       <c r="AD3" t="n">
-        <v>4667415.445534004</v>
+        <v>4792389.345497525</v>
       </c>
       <c r="AE3" t="n">
-        <v>6386163.724416919</v>
+        <v>6557158.527806363</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.102421103649568e-07</v>
+        <v>1.369754488707433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.00694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>5776677.221595407</v>
+        <v>5931352.520942071</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3595.564524138802</v>
+        <v>3709.953258188599</v>
       </c>
       <c r="AB4" t="n">
-        <v>4919.610007038597</v>
+        <v>5076.121719440323</v>
       </c>
       <c r="AC4" t="n">
-        <v>4450.089332682658</v>
+        <v>4591.663786918324</v>
       </c>
       <c r="AD4" t="n">
-        <v>3595564.524138802</v>
+        <v>3709953.258188599</v>
       </c>
       <c r="AE4" t="n">
-        <v>4919610.007038597</v>
+        <v>5076121.719440322</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.495617386326079e-07</v>
+        <v>1.605281232804588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.33888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4450089.332682658</v>
+        <v>4591663.786918324</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3174.434793851709</v>
+        <v>3278.579635897517</v>
       </c>
       <c r="AB5" t="n">
-        <v>4343.401731127297</v>
+        <v>4485.897298560545</v>
       </c>
       <c r="AC5" t="n">
-        <v>3928.873565910961</v>
+        <v>4057.769556382159</v>
       </c>
       <c r="AD5" t="n">
-        <v>3174434.793851709</v>
+        <v>3278579.635897517</v>
       </c>
       <c r="AE5" t="n">
-        <v>4343401.731127298</v>
+        <v>4485897.298560545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.023525143377842e-06</v>
+        <v>1.73032003830957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3928873.565910961</v>
+        <v>4057769.556382159</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2950.750094854893</v>
+        <v>3054.80959604613</v>
       </c>
       <c r="AB6" t="n">
-        <v>4037.346457687385</v>
+        <v>4179.725257998435</v>
       </c>
       <c r="AC6" t="n">
-        <v>3652.027778216891</v>
+        <v>3780.81814565615</v>
       </c>
       <c r="AD6" t="n">
-        <v>2950750.094854893</v>
+        <v>3054809.59604613</v>
       </c>
       <c r="AE6" t="n">
-        <v>4037346.457687385</v>
+        <v>4179725.257998435</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.06889520033202e-06</v>
+        <v>1.807020370680476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.95694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>3652027.778216891</v>
+        <v>3780818.14565615</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2812.099169161075</v>
+        <v>2905.744275656282</v>
       </c>
       <c r="AB7" t="n">
-        <v>3847.638144305955</v>
+        <v>3975.767510343229</v>
       </c>
       <c r="AC7" t="n">
-        <v>3480.424960007303</v>
+        <v>3596.325839180668</v>
       </c>
       <c r="AD7" t="n">
-        <v>2812099.169161075</v>
+        <v>2905744.275656282</v>
       </c>
       <c r="AE7" t="n">
-        <v>3847638.144305956</v>
+        <v>3975767.510343229</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.10055212110069e-06</v>
+        <v>1.86053796593606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>3480424.960007302</v>
+        <v>3596325.839180668</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2712.988677633735</v>
+        <v>2806.633784128942</v>
       </c>
       <c r="AB8" t="n">
-        <v>3712.030797351948</v>
+        <v>3840.160163389221</v>
       </c>
       <c r="AC8" t="n">
-        <v>3357.759787920483</v>
+        <v>3473.660667093848</v>
       </c>
       <c r="AD8" t="n">
-        <v>2712988.677633735</v>
+        <v>2806633.784128943</v>
       </c>
       <c r="AE8" t="n">
-        <v>3712030.797351948</v>
+        <v>3840160.163389221</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.124039513929059e-06</v>
+        <v>1.900244568867622e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.025</v>
       </c>
       <c r="AH8" t="n">
-        <v>3357759.787920483</v>
+        <v>3473660.667093848</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2632.050147852985</v>
+        <v>2725.780505694212</v>
       </c>
       <c r="AB9" t="n">
-        <v>3601.287130149996</v>
+        <v>3729.533140839918</v>
       </c>
       <c r="AC9" t="n">
-        <v>3257.585340886576</v>
+        <v>3373.591732310654</v>
       </c>
       <c r="AD9" t="n">
-        <v>2632050.147852985</v>
+        <v>2725780.505694212</v>
       </c>
       <c r="AE9" t="n">
-        <v>3601287.130149996</v>
+        <v>3729533.140839919</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140670338664674e-06</v>
+        <v>1.928359803241523e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.7625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3257585.340886576</v>
+        <v>3373591.732310654</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2573.561375186951</v>
+        <v>2667.291733028178</v>
       </c>
       <c r="AB10" t="n">
-        <v>3521.260211045785</v>
+        <v>3649.506221735709</v>
       </c>
       <c r="AC10" t="n">
-        <v>3185.196078623188</v>
+        <v>3301.202470047266</v>
       </c>
       <c r="AD10" t="n">
-        <v>2573561.375186951</v>
+        <v>2667291.733028179</v>
       </c>
       <c r="AE10" t="n">
-        <v>3521260.211045785</v>
+        <v>3649506.221735708</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154383474850181e-06</v>
+        <v>1.951542540356845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.55138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>3185196.078623189</v>
+        <v>3301202.470047266</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2524.505955476927</v>
+        <v>2618.065721117562</v>
       </c>
       <c r="AB11" t="n">
-        <v>3454.140421626147</v>
+        <v>3582.153020541224</v>
       </c>
       <c r="AC11" t="n">
-        <v>3124.482107702548</v>
+        <v>3240.277363843975</v>
       </c>
       <c r="AD11" t="n">
-        <v>2524505.955476927</v>
+        <v>2618065.721117562</v>
       </c>
       <c r="AE11" t="n">
-        <v>3454140.421626147</v>
+        <v>3582153.020541224</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.165324806913085e-06</v>
+        <v>1.970039405076517e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>3124482.107702548</v>
+        <v>3240277.363843975</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2483.74236480632</v>
+        <v>2577.302130446956</v>
       </c>
       <c r="AB12" t="n">
-        <v>3398.365878507924</v>
+        <v>3526.378477423</v>
       </c>
       <c r="AC12" t="n">
-        <v>3074.030608699466</v>
+        <v>3189.825864840893</v>
       </c>
       <c r="AD12" t="n">
-        <v>2483742.364806321</v>
+        <v>2577302.130446956</v>
       </c>
       <c r="AE12" t="n">
-        <v>3398365.878507924</v>
+        <v>3526378.477423</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.174807294700936e-06</v>
+        <v>1.9860700211669e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.24722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>3074030.608699466</v>
+        <v>3189825.864840893</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2449.349240261658</v>
+        <v>2532.665203406857</v>
       </c>
       <c r="AB13" t="n">
-        <v>3351.307688188346</v>
+        <v>3465.304264604493</v>
       </c>
       <c r="AC13" t="n">
-        <v>3031.463586017406</v>
+        <v>3134.580489175591</v>
       </c>
       <c r="AD13" t="n">
-        <v>2449349.240261659</v>
+        <v>2532665.203406856</v>
       </c>
       <c r="AE13" t="n">
-        <v>3351307.688188346</v>
+        <v>3465304.264604493</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182101516076206e-06</v>
+        <v>1.998401264313348e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.14027777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>3031463.586017406</v>
+        <v>3134580.489175591</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2416.374955257495</v>
+        <v>2499.690918402692</v>
       </c>
       <c r="AB14" t="n">
-        <v>3306.190816722861</v>
+        <v>3420.187393139008</v>
       </c>
       <c r="AC14" t="n">
-        <v>2990.652605442662</v>
+        <v>3093.769508600847</v>
       </c>
       <c r="AD14" t="n">
-        <v>2416374.955257495</v>
+        <v>2499690.918402692</v>
       </c>
       <c r="AE14" t="n">
-        <v>3306190.816722861</v>
+        <v>3420187.393139008</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.188520430886443e-06</v>
+        <v>2.009252758282221e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.04722222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>2990652.605442662</v>
+        <v>3093769.508600846</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2375.696412758317</v>
+        <v>2469.341429744973</v>
       </c>
       <c r="AB15" t="n">
-        <v>3250.532640264846</v>
+        <v>3378.661883832571</v>
       </c>
       <c r="AC15" t="n">
-        <v>2940.30636722906</v>
+        <v>3056.2071356212</v>
       </c>
       <c r="AD15" t="n">
-        <v>2375696.412758317</v>
+        <v>2469341.429744973</v>
       </c>
       <c r="AE15" t="n">
-        <v>3250532.640264846</v>
+        <v>3378661.883832571</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.194501692414164e-06</v>
+        <v>2.019364377662309e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.9625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2940306.36722906</v>
+        <v>3056207.135621199</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2346.919258044172</v>
+        <v>2440.564275030828</v>
       </c>
       <c r="AB16" t="n">
-        <v>3211.158467626485</v>
+        <v>3339.28771119421</v>
       </c>
       <c r="AC16" t="n">
-        <v>2904.690010365307</v>
+        <v>3020.590778757447</v>
       </c>
       <c r="AD16" t="n">
-        <v>2346919.258044172</v>
+        <v>2440564.275030828</v>
       </c>
       <c r="AE16" t="n">
-        <v>3211158.467626485</v>
+        <v>3339287.71119421</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.199315878521842e-06</v>
+        <v>2.027502998138965e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.89444444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>2904690.010365307</v>
+        <v>3020590.778757446</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2321.867955851797</v>
+        <v>2415.512972838452</v>
       </c>
       <c r="AB17" t="n">
-        <v>3176.882170781422</v>
+        <v>3305.011414349148</v>
       </c>
       <c r="AC17" t="n">
-        <v>2873.684995184053</v>
+        <v>2989.585763576193</v>
       </c>
       <c r="AD17" t="n">
-        <v>2321867.955851797</v>
+        <v>2415512.972838452</v>
       </c>
       <c r="AE17" t="n">
-        <v>3176882.170781422</v>
+        <v>3305011.414349148</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.203546526919498e-06</v>
+        <v>2.034655119163904e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.83611111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2873684.995184053</v>
+        <v>2989585.763576193</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2299.632359998942</v>
+        <v>2393.277376985598</v>
       </c>
       <c r="AB18" t="n">
-        <v>3146.458447570288</v>
+        <v>3274.587691138014</v>
       </c>
       <c r="AC18" t="n">
-        <v>2846.164869416229</v>
+        <v>2962.065637808368</v>
       </c>
       <c r="AD18" t="n">
-        <v>2299632.359998942</v>
+        <v>2393277.376985597</v>
       </c>
       <c r="AE18" t="n">
-        <v>3146458.447570288</v>
+        <v>3274587.691138014</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.206901868752123e-06</v>
+        <v>2.04032749101127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.78888888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>2846164.869416228</v>
+        <v>2962065.637808368</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2275.891907224977</v>
+        <v>2369.536924211633</v>
       </c>
       <c r="AB19" t="n">
-        <v>3113.97571273009</v>
+        <v>3242.104956297816</v>
       </c>
       <c r="AC19" t="n">
-        <v>2816.782241199375</v>
+        <v>2932.683009591515</v>
       </c>
       <c r="AD19" t="n">
-        <v>2275891.907224977</v>
+        <v>2369536.924211633</v>
       </c>
       <c r="AE19" t="n">
-        <v>3113975.712730091</v>
+        <v>3242104.956297816</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210548979439757e-06</v>
+        <v>2.046493112584494e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.7375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2816782.241199375</v>
+        <v>2932683.009591515</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2253.394845353594</v>
+        <v>2347.03986234025</v>
       </c>
       <c r="AB20" t="n">
-        <v>3083.194240177339</v>
+        <v>3211.323483745065</v>
       </c>
       <c r="AC20" t="n">
-        <v>2788.938509184992</v>
+        <v>2904.839277577131</v>
       </c>
       <c r="AD20" t="n">
-        <v>2253394.845353594</v>
+        <v>2347039.86234025</v>
       </c>
       <c r="AE20" t="n">
-        <v>3083194.240177339</v>
+        <v>3211323.483745065</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.213612552417371e-06</v>
+        <v>2.051672234706002e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.69583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2788938.509184992</v>
+        <v>2904839.277577131</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2235.268694351863</v>
+        <v>2328.913711338519</v>
       </c>
       <c r="AB21" t="n">
-        <v>3058.393240707425</v>
+        <v>3186.522484275151</v>
       </c>
       <c r="AC21" t="n">
-        <v>2766.504482296066</v>
+        <v>2882.405250688205</v>
       </c>
       <c r="AD21" t="n">
-        <v>2235268.694351863</v>
+        <v>2328913.711338519</v>
       </c>
       <c r="AE21" t="n">
-        <v>3058393.240707425</v>
+        <v>3186522.484275151</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216238472112468e-06</v>
+        <v>2.056111482238724e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.65972222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>2766504.482296066</v>
+        <v>2882405.250688205</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2207.81461206745</v>
+        <v>2301.459629054106</v>
       </c>
       <c r="AB22" t="n">
-        <v>3020.829354137261</v>
+        <v>3148.958597704986</v>
       </c>
       <c r="AC22" t="n">
-        <v>2732.525640338913</v>
+        <v>2848.426408731052</v>
       </c>
       <c r="AD22" t="n">
-        <v>2207814.61206745</v>
+        <v>2301459.629054106</v>
       </c>
       <c r="AE22" t="n">
-        <v>3020829.354137261</v>
+        <v>3148958.597704986</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219156160662576e-06</v>
+        <v>2.061043979497303e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.62083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2732525.640338913</v>
+        <v>2848426.408731052</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2196.038945749685</v>
+        <v>2289.68396273634</v>
       </c>
       <c r="AB23" t="n">
-        <v>3004.71736797556</v>
+        <v>3132.846611543285</v>
       </c>
       <c r="AC23" t="n">
-        <v>2717.951359523171</v>
+        <v>2833.85212791531</v>
       </c>
       <c r="AD23" t="n">
-        <v>2196038.945749685</v>
+        <v>2289683.96273634</v>
       </c>
       <c r="AE23" t="n">
-        <v>3004717.36797556</v>
+        <v>3132846.611543285</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220323236082619e-06</v>
+        <v>2.063016978400735e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.60277777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>2717951.359523171</v>
+        <v>2833852.12791531</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2169.227015893073</v>
+        <v>2262.872032879732</v>
       </c>
       <c r="AB24" t="n">
-        <v>2968.032102686709</v>
+        <v>3096.161346254607</v>
       </c>
       <c r="AC24" t="n">
-        <v>2684.767284465508</v>
+        <v>2800.668052857693</v>
       </c>
       <c r="AD24" t="n">
-        <v>2169227.015893073</v>
+        <v>2262872.032879732</v>
       </c>
       <c r="AE24" t="n">
-        <v>2968032.102686709</v>
+        <v>3096161.346254608</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223240924632727e-06</v>
+        <v>2.067949475659314e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.56388888888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>2684767.284465508</v>
+        <v>2800668.052857693</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2156.986896195914</v>
+        <v>2250.631913182572</v>
       </c>
       <c r="AB25" t="n">
-        <v>2951.284630921085</v>
+        <v>3079.413874488984</v>
       </c>
       <c r="AC25" t="n">
-        <v>2669.618167899971</v>
+        <v>2785.518936292156</v>
       </c>
       <c r="AD25" t="n">
-        <v>2156986.896195914</v>
+        <v>2250631.913182572</v>
       </c>
       <c r="AE25" t="n">
-        <v>2951284.630921085</v>
+        <v>3079413.874488984</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.224845653335286e-06</v>
+        <v>2.070662349151532e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.54305555555555</v>
       </c>
       <c r="AH25" t="n">
-        <v>2669618.167899971</v>
+        <v>2785518.936292156</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2140.942601502972</v>
+        <v>2234.58761848963</v>
       </c>
       <c r="AB26" t="n">
-        <v>2929.332119097875</v>
+        <v>3057.461362665772</v>
       </c>
       <c r="AC26" t="n">
-        <v>2649.760772994624</v>
+        <v>2765.661541386809</v>
       </c>
       <c r="AD26" t="n">
-        <v>2140942.601502972</v>
+        <v>2234587.61848963</v>
       </c>
       <c r="AE26" t="n">
-        <v>2929332.119097875</v>
+        <v>3057461.362665772</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.225720959900318e-06</v>
+        <v>2.072142098329106e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.53055555555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>2649760.772994624</v>
+        <v>2765661.541386809</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2130.322907720158</v>
+        <v>2223.967924706816</v>
       </c>
       <c r="AB27" t="n">
-        <v>2914.801785556405</v>
+        <v>3042.931029124302</v>
       </c>
       <c r="AC27" t="n">
-        <v>2636.617194092902</v>
+        <v>2752.517962485086</v>
       </c>
       <c r="AD27" t="n">
-        <v>2130322.907720158</v>
+        <v>2223967.924706816</v>
       </c>
       <c r="AE27" t="n">
-        <v>2914801.785556405</v>
+        <v>3042931.029124302</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.227471573030383e-06</v>
+        <v>2.075101596684253e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.50694444444444</v>
       </c>
       <c r="AH27" t="n">
-        <v>2636617.194092901</v>
+        <v>2752517.962485086</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2135.71914044186</v>
+        <v>2229.364157428519</v>
       </c>
       <c r="AB28" t="n">
-        <v>2922.185149231224</v>
+        <v>3050.314392799121</v>
       </c>
       <c r="AC28" t="n">
-        <v>2643.295899901212</v>
+        <v>2759.196668293396</v>
       </c>
       <c r="AD28" t="n">
-        <v>2135719.140441861</v>
+        <v>2229364.157428519</v>
       </c>
       <c r="AE28" t="n">
-        <v>2922185.149231224</v>
+        <v>3050314.392799121</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>2.074854971821325e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.50833333333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>2643295.899901212</v>
+        <v>2759196.668293396</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2140.759404456331</v>
+        <v>2234.404421442989</v>
       </c>
       <c r="AB29" t="n">
-        <v>2929.081460816578</v>
+        <v>3057.210704384475</v>
       </c>
       <c r="AC29" t="n">
-        <v>2649.534037187893</v>
+        <v>2765.434805580078</v>
       </c>
       <c r="AD29" t="n">
-        <v>2140759.404456331</v>
+        <v>2234404.421442989</v>
       </c>
       <c r="AE29" t="n">
-        <v>2929081.460816578</v>
+        <v>3057210.704384475</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>2.074854971821325e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.50972222222222</v>
       </c>
       <c r="AH29" t="n">
-        <v>2649534.037187893</v>
+        <v>2765434.805580078</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2145.970901931035</v>
+        <v>2229.201524221664</v>
       </c>
       <c r="AB30" t="n">
-        <v>2936.212061576511</v>
+        <v>3050.091870870631</v>
       </c>
       <c r="AC30" t="n">
-        <v>2655.984103419159</v>
+        <v>2758.99538354545</v>
       </c>
       <c r="AD30" t="n">
-        <v>2145970.901931035</v>
+        <v>2229201.524221664</v>
       </c>
       <c r="AE30" t="n">
-        <v>2936212.061576511</v>
+        <v>3050091.870870631</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>2.076334720998898e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16.49722222222222</v>
       </c>
       <c r="AH30" t="n">
-        <v>2655984.103419159</v>
+        <v>2758995.38354545</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>2155.237550941122</v>
+        <v>2238.468173231751</v>
       </c>
       <c r="AB31" t="n">
-        <v>2948.891099567812</v>
+        <v>3062.770908861934</v>
       </c>
       <c r="AC31" t="n">
-        <v>2667.453071819713</v>
+        <v>2770.464351946004</v>
       </c>
       <c r="AD31" t="n">
-        <v>2155237.550941122</v>
+        <v>2238468.173231751</v>
       </c>
       <c r="AE31" t="n">
-        <v>2948891.099567812</v>
+        <v>3062770.908861934</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>2.076334720998898e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16.49722222222222</v>
       </c>
       <c r="AH31" t="n">
-        <v>2667453.071819713</v>
+        <v>2770464.351946004</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8408.387177998302</v>
+        <v>8599.937374831052</v>
       </c>
       <c r="AB2" t="n">
-        <v>11504.72628879976</v>
+        <v>11766.81371870461</v>
       </c>
       <c r="AC2" t="n">
-        <v>10406.73135878103</v>
+        <v>10643.80553221778</v>
       </c>
       <c r="AD2" t="n">
-        <v>8408387.177998303</v>
+        <v>8599937.374831052</v>
       </c>
       <c r="AE2" t="n">
-        <v>11504726.28879976</v>
+        <v>11766813.71870461</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.653290854436083e-07</v>
+        <v>9.790318264398825e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.07361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>10406731.35878103</v>
+        <v>10643805.53221778</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3658.24649401234</v>
+        <v>3779.247967284091</v>
       </c>
       <c r="AB3" t="n">
-        <v>5005.37424355292</v>
+        <v>5170.933797491588</v>
       </c>
       <c r="AC3" t="n">
-        <v>4527.668350834912</v>
+        <v>4677.42713330996</v>
       </c>
       <c r="AD3" t="n">
-        <v>3658246.49401234</v>
+        <v>3779247.967284091</v>
       </c>
       <c r="AE3" t="n">
-        <v>5005374.24355292</v>
+        <v>5170933.797491588</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.140945730197371e-07</v>
+        <v>1.583020761544679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>4527668.350834913</v>
+        <v>4677427.13330996</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2953.936550523303</v>
+        <v>3054.756977615883</v>
       </c>
       <c r="AB4" t="n">
-        <v>4041.706306909406</v>
+        <v>4179.653263140811</v>
       </c>
       <c r="AC4" t="n">
-        <v>3655.971529548249</v>
+        <v>3780.753021886691</v>
       </c>
       <c r="AD4" t="n">
-        <v>2953936.550523303</v>
+        <v>3054756.977615884</v>
       </c>
       <c r="AE4" t="n">
-        <v>4041706.306909406</v>
+        <v>4179653.263140811</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03935435436469e-06</v>
+        <v>1.799944524477168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.16805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>3655971.529548249</v>
+        <v>3780753.021886691</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2648.548961181774</v>
+        <v>2749.369298765804</v>
       </c>
       <c r="AB5" t="n">
-        <v>3623.861534422719</v>
+        <v>3761.808368184576</v>
       </c>
       <c r="AC5" t="n">
-        <v>3278.005275698885</v>
+        <v>3402.786657256102</v>
       </c>
       <c r="AD5" t="n">
-        <v>2648548.961181774</v>
+        <v>2749369.298765804</v>
       </c>
       <c r="AE5" t="n">
-        <v>3623861.534422719</v>
+        <v>3761808.368184575</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.105455299219015e-06</v>
+        <v>1.914417546362024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.96111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>3278005.275698885</v>
+        <v>3402786.657256102</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2490.4660483568</v>
+        <v>2581.195907605521</v>
       </c>
       <c r="AB6" t="n">
-        <v>3407.565518969673</v>
+        <v>3531.706115112673</v>
       </c>
       <c r="AC6" t="n">
-        <v>3082.352248387322</v>
+        <v>3194.64504026685</v>
       </c>
       <c r="AD6" t="n">
-        <v>2490466.0483568</v>
+        <v>2581195.907605521</v>
       </c>
       <c r="AE6" t="n">
-        <v>3407565.518969673</v>
+        <v>3531706.115112673</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.145749710808295e-06</v>
+        <v>1.984199046004162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.29444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>3082352.248387322</v>
+        <v>3194645.04026685</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2375.762642856698</v>
+        <v>2476.497639586157</v>
       </c>
       <c r="AB7" t="n">
-        <v>3250.623259207317</v>
+        <v>3388.453325846975</v>
       </c>
       <c r="AC7" t="n">
-        <v>2940.388337626846</v>
+        <v>3065.064096152124</v>
       </c>
       <c r="AD7" t="n">
-        <v>2375762.642856698</v>
+        <v>2476497.639586157</v>
       </c>
       <c r="AE7" t="n">
-        <v>3250623.259207317</v>
+        <v>3388453.325846975</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.173065398065448e-06</v>
+        <v>2.031504107559319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.86805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2940388.337626846</v>
+        <v>3065064.096152124</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2299.676997221004</v>
+        <v>2390.492107815745</v>
       </c>
       <c r="AB8" t="n">
-        <v>3146.519522186769</v>
+        <v>3270.776762982418</v>
       </c>
       <c r="AC8" t="n">
-        <v>2846.220115157031</v>
+        <v>2958.618419287271</v>
       </c>
       <c r="AD8" t="n">
-        <v>2299676.997221004</v>
+        <v>2390492.107815745</v>
       </c>
       <c r="AE8" t="n">
-        <v>3146519.522186769</v>
+        <v>3270776.762982418</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.192835315362061e-06</v>
+        <v>2.065741472552278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.57222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>2846220.115157031</v>
+        <v>2958618.419287271</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2239.570163599324</v>
+        <v>2330.214681993473</v>
       </c>
       <c r="AB9" t="n">
-        <v>3064.278700699231</v>
+        <v>3188.302529720032</v>
       </c>
       <c r="AC9" t="n">
-        <v>2771.828242246549</v>
+        <v>2884.015411094138</v>
       </c>
       <c r="AD9" t="n">
-        <v>2239570.163599323</v>
+        <v>2330214.681993473</v>
       </c>
       <c r="AE9" t="n">
-        <v>3064278.700699231</v>
+        <v>3188302.529720033</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.207625024484718e-06</v>
+        <v>2.091354157814186e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.35555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>2771828.242246549</v>
+        <v>2884015.411094137</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2190.075247441997</v>
+        <v>2280.719765836149</v>
       </c>
       <c r="AB10" t="n">
-        <v>2996.557572851009</v>
+        <v>3120.581401871986</v>
       </c>
       <c r="AC10" t="n">
-        <v>2710.570323793076</v>
+        <v>2822.757492640711</v>
       </c>
       <c r="AD10" t="n">
-        <v>2190075.247441997</v>
+        <v>2280719.765836149</v>
       </c>
       <c r="AE10" t="n">
-        <v>2996557.572851009</v>
+        <v>3120581.401871986</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.218792764026316e-06</v>
+        <v>2.110694348726239e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.19722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2710570.323793076</v>
+        <v>2822757.492640711</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2143.855573921468</v>
+        <v>2224.580206180902</v>
       </c>
       <c r="AB11" t="n">
-        <v>2933.317776472134</v>
+        <v>3043.768779649097</v>
       </c>
       <c r="AC11" t="n">
-        <v>2653.366044822989</v>
+        <v>2753.275759275586</v>
       </c>
       <c r="AD11" t="n">
-        <v>2143855.573921468</v>
+        <v>2224580.206180902</v>
       </c>
       <c r="AE11" t="n">
-        <v>2933317.776472135</v>
+        <v>3043768.779649097</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229658672769493e-06</v>
+        <v>2.129511831775805e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.04583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2653366.044822989</v>
+        <v>2753275.759275586</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2098.280265996965</v>
+        <v>2189.010035737134</v>
       </c>
       <c r="AB12" t="n">
-        <v>2870.959629529148</v>
+        <v>2995.100103202592</v>
       </c>
       <c r="AC12" t="n">
-        <v>2596.959271904033</v>
+        <v>2709.251953002333</v>
       </c>
       <c r="AD12" t="n">
-        <v>2098280.265996965</v>
+        <v>2189010.035737134</v>
       </c>
       <c r="AE12" t="n">
-        <v>2870959.629529148</v>
+        <v>2995100.103202592</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.236298950334767e-06</v>
+        <v>2.141011404750539e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.95277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2596959.271904033</v>
+        <v>2709251.953002333</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2061.861226132246</v>
+        <v>2152.590995872416</v>
       </c>
       <c r="AB13" t="n">
-        <v>2821.129492491597</v>
+        <v>2945.269966165041</v>
       </c>
       <c r="AC13" t="n">
-        <v>2551.884853208309</v>
+        <v>2664.177534306609</v>
       </c>
       <c r="AD13" t="n">
-        <v>2061861.226132246</v>
+        <v>2152590.995872416</v>
       </c>
       <c r="AE13" t="n">
-        <v>2821129.492491597</v>
+        <v>2945269.966165041</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243693804896096e-06</v>
+        <v>2.153817747381493e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.85277777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2551884.85320831</v>
+        <v>2664177.534306609</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2027.54447805814</v>
+        <v>2118.27424779831</v>
       </c>
       <c r="AB14" t="n">
-        <v>2774.175803828529</v>
+        <v>2898.316277501973</v>
       </c>
       <c r="AC14" t="n">
-        <v>2509.412358691329</v>
+        <v>2621.705039789627</v>
       </c>
       <c r="AD14" t="n">
-        <v>2027544.47805814</v>
+        <v>2118274.24779831</v>
       </c>
       <c r="AE14" t="n">
-        <v>2774175.803828529</v>
+        <v>2898316.277501973</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.249277674666895e-06</v>
+        <v>2.16348784283752e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.77916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2509412.358691329</v>
+        <v>2621705.039789627</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1995.305510940807</v>
+        <v>2086.035280680976</v>
       </c>
       <c r="AB15" t="n">
-        <v>2730.065026735744</v>
+        <v>2854.205500409188</v>
       </c>
       <c r="AC15" t="n">
-        <v>2469.511452254415</v>
+        <v>2581.804133352714</v>
       </c>
       <c r="AD15" t="n">
-        <v>1995305.510940807</v>
+        <v>2086035.280680977</v>
       </c>
       <c r="AE15" t="n">
-        <v>2730065.026735744</v>
+        <v>2854205.500409188</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.25410696744164e-06</v>
+        <v>2.171851168637326e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.71388888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2469511.452254415</v>
+        <v>2581804.133352714</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1966.24086721378</v>
+        <v>2056.97063695395</v>
       </c>
       <c r="AB16" t="n">
-        <v>2690.297498946841</v>
+        <v>2814.437972620285</v>
       </c>
       <c r="AC16" t="n">
-        <v>2433.539281503609</v>
+        <v>2545.831962601907</v>
       </c>
       <c r="AD16" t="n">
-        <v>1966240.86721378</v>
+        <v>2056970.63695395</v>
       </c>
       <c r="AE16" t="n">
-        <v>2690297.498946841</v>
+        <v>2814437.972620285</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.258030767821121e-06</v>
+        <v>2.178646370849669e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.66111111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2433539.281503609</v>
+        <v>2545831.962601908</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1931.290364099905</v>
+        <v>2022.020133840075</v>
       </c>
       <c r="AB17" t="n">
-        <v>2642.476678679062</v>
+        <v>2766.617152352506</v>
       </c>
       <c r="AC17" t="n">
-        <v>2390.282413205244</v>
+        <v>2502.575094303543</v>
       </c>
       <c r="AD17" t="n">
-        <v>1931290.364099905</v>
+        <v>2022020.133840075</v>
       </c>
       <c r="AE17" t="n">
-        <v>2642476.678679063</v>
+        <v>2766617.152352506</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.262256398999023e-06</v>
+        <v>2.1859642809245e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.60555555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>2390282.413205244</v>
+        <v>2502575.094303543</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1911.563411549053</v>
+        <v>2002.293181289223</v>
       </c>
       <c r="AB18" t="n">
-        <v>2615.485391907262</v>
+        <v>2739.625865580706</v>
       </c>
       <c r="AC18" t="n">
-        <v>2365.867136960435</v>
+        <v>2478.159818058734</v>
       </c>
       <c r="AD18" t="n">
-        <v>1911563.411549053</v>
+        <v>2002293.181289223</v>
       </c>
       <c r="AE18" t="n">
-        <v>2615485.391907262</v>
+        <v>2739625.865580706</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264369214587974e-06</v>
+        <v>2.189623235961916e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.57777777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>2365867.136960435</v>
+        <v>2478159.818058734</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1895.548538071899</v>
+        <v>1986.278307812068</v>
       </c>
       <c r="AB19" t="n">
-        <v>2593.573135489465</v>
+        <v>2717.713609162909</v>
       </c>
       <c r="AC19" t="n">
-        <v>2346.046155541108</v>
+        <v>2458.338836639407</v>
       </c>
       <c r="AD19" t="n">
-        <v>1895548.538071899</v>
+        <v>1986278.307812068</v>
       </c>
       <c r="AE19" t="n">
-        <v>2593573.135489465</v>
+        <v>2717713.609162909</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.266029283979292e-06</v>
+        <v>2.1924981292056e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.55694444444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>2346046.155541108</v>
+        <v>2458338.836639407</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1896.885707334046</v>
+        <v>1987.615477074216</v>
       </c>
       <c r="AB20" t="n">
-        <v>2595.40270946568</v>
+        <v>2719.543183139124</v>
       </c>
       <c r="AC20" t="n">
-        <v>2347.701117544857</v>
+        <v>2459.993798643155</v>
       </c>
       <c r="AD20" t="n">
-        <v>1896885.707334046</v>
+        <v>1987615.477074216</v>
       </c>
       <c r="AE20" t="n">
-        <v>2595402.70946568</v>
+        <v>2719543.183139124</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>2.193804898861819e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.54722222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>2347701.117544856</v>
+        <v>2459993.798643155</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1903.068041965273</v>
+        <v>1993.797811705442</v>
       </c>
       <c r="AB21" t="n">
-        <v>2603.861652453478</v>
+        <v>2728.002126126923</v>
       </c>
       <c r="AC21" t="n">
-        <v>2355.3527508861</v>
+        <v>2467.645431984399</v>
       </c>
       <c r="AD21" t="n">
-        <v>1903068.041965273</v>
+        <v>1993797.811705442</v>
       </c>
       <c r="AE21" t="n">
-        <v>2603861.652453478</v>
+        <v>2728002.126126923</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>2.193804898861819e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.54722222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>2355352.7508861</v>
+        <v>2467645.431984399</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1909.132545785488</v>
+        <v>1999.862315525658</v>
       </c>
       <c r="AB22" t="n">
-        <v>2612.159374127323</v>
+        <v>2736.299847800768</v>
       </c>
       <c r="AC22" t="n">
-        <v>2362.858549649319</v>
+        <v>2475.151230747617</v>
       </c>
       <c r="AD22" t="n">
-        <v>1909132.545785488</v>
+        <v>1999862.315525658</v>
       </c>
       <c r="AE22" t="n">
-        <v>2612159.374127323</v>
+        <v>2736299.847800768</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267689353370611e-06</v>
+        <v>2.195373022449283e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.53472222222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>2362858.549649319</v>
+        <v>2475151.230747617</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2739.710720500018</v>
+        <v>2849.095107852603</v>
       </c>
       <c r="AB2" t="n">
-        <v>3748.593075294927</v>
+        <v>3898.257619769331</v>
       </c>
       <c r="AC2" t="n">
-        <v>3390.832613372062</v>
+        <v>3526.213383777331</v>
       </c>
       <c r="AD2" t="n">
-        <v>2739710.720500018</v>
+        <v>2849095.107852603</v>
       </c>
       <c r="AE2" t="n">
-        <v>3748593.075294927</v>
+        <v>3898257.619769331</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84969263429262e-07</v>
+        <v>1.863773801667722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.74444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>3390832.613372062</v>
+        <v>3526213.383777331</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1830.685246161965</v>
+        <v>1912.723626184954</v>
       </c>
       <c r="AB3" t="n">
-        <v>2504.824317931815</v>
+        <v>2617.07284875716</v>
       </c>
       <c r="AC3" t="n">
-        <v>2265.767400571412</v>
+        <v>2367.303089156588</v>
       </c>
       <c r="AD3" t="n">
-        <v>1830685.246161965</v>
+        <v>1912723.626184954</v>
       </c>
       <c r="AE3" t="n">
-        <v>2504824.317931815</v>
+        <v>2617072.848757159</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.229148684180233e-06</v>
+        <v>2.32581381062963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2265767.400571411</v>
+        <v>2367303.089156588</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1589.483700122802</v>
+        <v>1671.521990637241</v>
       </c>
       <c r="AB4" t="n">
-        <v>2174.80172157983</v>
+        <v>2287.050129935626</v>
       </c>
       <c r="AC4" t="n">
-        <v>1967.241697625637</v>
+        <v>2068.777275429587</v>
       </c>
       <c r="AD4" t="n">
-        <v>1589483.700122803</v>
+        <v>1671521.990637241</v>
       </c>
       <c r="AE4" t="n">
-        <v>2174801.72157983</v>
+        <v>2287050.129935626</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.312843285637635e-06</v>
+        <v>2.484182006804849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.81527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1967241.697625637</v>
+        <v>2068777.275429587</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1464.443492366058</v>
+        <v>1546.311190679904</v>
       </c>
       <c r="AB5" t="n">
-        <v>2003.716192942412</v>
+        <v>2115.731189523362</v>
       </c>
       <c r="AC5" t="n">
-        <v>1812.484331721327</v>
+        <v>1913.808774242626</v>
       </c>
       <c r="AD5" t="n">
-        <v>1464443.492366058</v>
+        <v>1546311.190679904</v>
       </c>
       <c r="AE5" t="n">
-        <v>2003716.192942412</v>
+        <v>2115731.189523362</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.355785183769702e-06</v>
+        <v>2.565437318725737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.25138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1812484.331721327</v>
+        <v>1913808.774242626</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1374.484362638117</v>
+        <v>1456.437312297984</v>
       </c>
       <c r="AB6" t="n">
-        <v>1880.630142931939</v>
+        <v>1992.761784165537</v>
       </c>
       <c r="AC6" t="n">
-        <v>1701.145441571497</v>
+        <v>1802.575396343508</v>
       </c>
       <c r="AD6" t="n">
-        <v>1374484.362638117</v>
+        <v>1456437.312297984</v>
       </c>
       <c r="AE6" t="n">
-        <v>1880630.142931939</v>
+        <v>1992761.784165537</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379192728241692e-06</v>
+        <v>2.609729429929671e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1701145.441571497</v>
+        <v>1802575.396343508</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1360.91986309081</v>
+        <v>1442.872812750677</v>
       </c>
       <c r="AB7" t="n">
-        <v>1862.070596227827</v>
+        <v>1974.202237461426</v>
       </c>
       <c r="AC7" t="n">
-        <v>1684.357191956339</v>
+        <v>1785.78714672835</v>
       </c>
       <c r="AD7" t="n">
-        <v>1360919.86309081</v>
+        <v>1442872.812750677</v>
       </c>
       <c r="AE7" t="n">
-        <v>1862070.596227827</v>
+        <v>1974202.237461426</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.384244716257229e-06</v>
+        <v>2.619288878390952e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1684357.191956338</v>
+        <v>1785787.14672835</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1370.959521419375</v>
+        <v>1452.912471079242</v>
       </c>
       <c r="AB8" t="n">
-        <v>1875.807299671436</v>
+        <v>1987.938940905035</v>
       </c>
       <c r="AC8" t="n">
-        <v>1696.782883702874</v>
+        <v>1798.212838474885</v>
       </c>
       <c r="AD8" t="n">
-        <v>1370959.521419375</v>
+        <v>1452912.471079242</v>
       </c>
       <c r="AE8" t="n">
-        <v>1875807.299671436</v>
+        <v>1987938.940905035</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.384413115857747e-06</v>
+        <v>2.619607526672995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.89444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1696782.883702874</v>
+        <v>1798212.838474885</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4104.057677296521</v>
+        <v>4236.839916001543</v>
       </c>
       <c r="AB2" t="n">
-        <v>5615.352772323693</v>
+        <v>5797.031289258854</v>
       </c>
       <c r="AC2" t="n">
-        <v>5079.431384930023</v>
+        <v>5243.770759196284</v>
       </c>
       <c r="AD2" t="n">
-        <v>4104057.677296521</v>
+        <v>4236839.916001543</v>
       </c>
       <c r="AE2" t="n">
-        <v>5615352.772323693</v>
+        <v>5797031.289258854</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.171121543716178e-07</v>
+        <v>1.488600889112666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.38194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>5079431.384930023</v>
+        <v>5243770.759196284</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2410.794181148738</v>
+        <v>2505.675237592442</v>
       </c>
       <c r="AB3" t="n">
-        <v>3298.554955380884</v>
+        <v>3428.375402663954</v>
       </c>
       <c r="AC3" t="n">
-        <v>2983.745499990163</v>
+        <v>3101.176065988675</v>
       </c>
       <c r="AD3" t="n">
-        <v>2410794.181148738</v>
+        <v>2505675.237592442</v>
       </c>
       <c r="AE3" t="n">
-        <v>3298554.955380884</v>
+        <v>3428375.402663954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104841315985914e-06</v>
+        <v>2.012780934056519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.25138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2983745.499990163</v>
+        <v>3101176.065988675</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2053.299310696777</v>
+        <v>2148.18027763193</v>
       </c>
       <c r="AB4" t="n">
-        <v>2809.414702067737</v>
+        <v>2939.235026881252</v>
       </c>
       <c r="AC4" t="n">
-        <v>2541.28810594069</v>
+        <v>2658.718561157974</v>
       </c>
       <c r="AD4" t="n">
-        <v>2053299.310696777</v>
+        <v>2148180.27763193</v>
       </c>
       <c r="AE4" t="n">
-        <v>2809414.702067737</v>
+        <v>2939235.026881251</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204563796970936e-06</v>
+        <v>2.194453637203353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.575</v>
       </c>
       <c r="AH4" t="n">
-        <v>2541288.10594069</v>
+        <v>2658718.561157974</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1886.324168798469</v>
+        <v>1981.11979487905</v>
       </c>
       <c r="AB5" t="n">
-        <v>2580.951946499108</v>
+        <v>2710.655504190425</v>
       </c>
       <c r="AC5" t="n">
-        <v>2334.62951511404</v>
+        <v>2451.954347299385</v>
       </c>
       <c r="AD5" t="n">
-        <v>1886324.168798469</v>
+        <v>1981119.79487905</v>
       </c>
       <c r="AE5" t="n">
-        <v>2580951.946499108</v>
+        <v>2710655.504190425</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255149998956876e-06</v>
+        <v>2.286610711174445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.82777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2334629.51511404</v>
+        <v>2451954.347299384</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1788.133696967191</v>
+        <v>1873.432781777351</v>
       </c>
       <c r="AB6" t="n">
-        <v>2446.603411081663</v>
+        <v>2563.313382048957</v>
       </c>
       <c r="AC6" t="n">
-        <v>2213.103015357482</v>
+        <v>2318.674350499131</v>
       </c>
       <c r="AD6" t="n">
-        <v>1788133.696967191</v>
+        <v>1873432.781777351</v>
       </c>
       <c r="AE6" t="n">
-        <v>2446603.411081663</v>
+        <v>2563313.382048958</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285437279126802e-06</v>
+        <v>2.34178755801064e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.40555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>2213103.015357483</v>
+        <v>2318674.350499131</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1709.53115160564</v>
+        <v>1785.504287345971</v>
       </c>
       <c r="AB7" t="n">
-        <v>2339.055940818426</v>
+        <v>2443.005736836544</v>
       </c>
       <c r="AC7" t="n">
-        <v>2115.819724712346</v>
+        <v>2209.848698092951</v>
       </c>
       <c r="AD7" t="n">
-        <v>1709531.15160564</v>
+        <v>1785504.287345971</v>
       </c>
       <c r="AE7" t="n">
-        <v>2339055.940818426</v>
+        <v>2443005.736836544</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307025021375579e-06</v>
+        <v>2.381115736074736e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.11944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>2115819.724712346</v>
+        <v>2209848.698092951</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1637.872912477201</v>
+        <v>1723.257248633382</v>
       </c>
       <c r="AB8" t="n">
-        <v>2241.009976704502</v>
+        <v>2357.836592324445</v>
       </c>
       <c r="AC8" t="n">
-        <v>2027.13112980508</v>
+        <v>2132.807977197441</v>
       </c>
       <c r="AD8" t="n">
-        <v>1637872.912477201</v>
+        <v>1723257.248633381</v>
       </c>
       <c r="AE8" t="n">
-        <v>2241009.976704502</v>
+        <v>2357836.592324445</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322007558906446e-06</v>
+        <v>2.408410665626684e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.925</v>
       </c>
       <c r="AH8" t="n">
-        <v>2027131.12980508</v>
+        <v>2132807.977197441</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1579.609914852028</v>
+        <v>1664.994251008209</v>
       </c>
       <c r="AB9" t="n">
-        <v>2161.291972971693</v>
+        <v>2278.118588591637</v>
       </c>
       <c r="AC9" t="n">
-        <v>1955.02130046361</v>
+        <v>2060.698147855971</v>
       </c>
       <c r="AD9" t="n">
-        <v>1579609.914852028</v>
+        <v>1664994.251008209</v>
       </c>
       <c r="AE9" t="n">
-        <v>2161291.972971693</v>
+        <v>2278118.588591637</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.333606942801312e-06</v>
+        <v>2.429542223989482e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1955021.30046361</v>
+        <v>2060698.147855971</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1555.511485180116</v>
+        <v>1640.895821336297</v>
       </c>
       <c r="AB10" t="n">
-        <v>2128.319438346899</v>
+        <v>2245.146053966842</v>
       </c>
       <c r="AC10" t="n">
-        <v>1925.195618266163</v>
+        <v>2030.872465658524</v>
       </c>
       <c r="AD10" t="n">
-        <v>1555511.485180116</v>
+        <v>1640895.821336297</v>
       </c>
       <c r="AE10" t="n">
-        <v>2128319.438346899</v>
+        <v>2245146.053966843</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.339084429640554e-06</v>
+        <v>2.439521015438581e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.70972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1925195.618266163</v>
+        <v>2030872.465658524</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1554.404934183608</v>
+        <v>1639.789270339789</v>
       </c>
       <c r="AB11" t="n">
-        <v>2126.805406455893</v>
+        <v>2243.632022075836</v>
       </c>
       <c r="AC11" t="n">
-        <v>1923.826083453877</v>
+        <v>2029.502930846238</v>
       </c>
       <c r="AD11" t="n">
-        <v>1554404.934183608</v>
+        <v>1639789.270339789</v>
       </c>
       <c r="AE11" t="n">
-        <v>2126805.406455893</v>
+        <v>2243632.022075836</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.442455954100081e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.69027777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1923826.083453877</v>
+        <v>2029502.930846238</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1563.800519462395</v>
+        <v>1649.184855618575</v>
       </c>
       <c r="AB12" t="n">
-        <v>2139.660860738296</v>
+        <v>2256.48747635824</v>
       </c>
       <c r="AC12" t="n">
-        <v>1935.454631222311</v>
+        <v>2041.131478614672</v>
       </c>
       <c r="AD12" t="n">
-        <v>1563800.519462395</v>
+        <v>1649184.855618575</v>
       </c>
       <c r="AE12" t="n">
-        <v>2139660.860738296</v>
+        <v>2256487.47635824</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.442455954100081e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.69027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1935454.631222311</v>
+        <v>2041131.478614673</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1969.76909758157</v>
+        <v>2066.59824721931</v>
       </c>
       <c r="AB2" t="n">
-        <v>2695.124979390589</v>
+        <v>2827.610893725539</v>
       </c>
       <c r="AC2" t="n">
-        <v>2437.906033989216</v>
+        <v>2557.747678605188</v>
       </c>
       <c r="AD2" t="n">
-        <v>1969769.09758157</v>
+        <v>2066598.24721931</v>
       </c>
       <c r="AE2" t="n">
-        <v>2695124.97939059</v>
+        <v>2827610.893725539</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129136030725361e-06</v>
+        <v>2.212742812064545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2437906.033989216</v>
+        <v>2557747.678605188</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1415.531705370357</v>
+        <v>1494.670303727942</v>
       </c>
       <c r="AB3" t="n">
-        <v>1936.792928139145</v>
+        <v>2045.073849760545</v>
       </c>
       <c r="AC3" t="n">
-        <v>1751.948129383491</v>
+        <v>1849.894871818573</v>
       </c>
       <c r="AD3" t="n">
-        <v>1415531.705370357</v>
+        <v>1494670.303727942</v>
       </c>
       <c r="AE3" t="n">
-        <v>1936792.928139145</v>
+        <v>2045073.849760545</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336039364732192e-06</v>
+        <v>2.618206682366956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1751948.129383491</v>
+        <v>1849894.871818573</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1241.548647295629</v>
+        <v>1320.601904798642</v>
       </c>
       <c r="AB4" t="n">
-        <v>1698.741632490496</v>
+        <v>1806.905786989699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1536.616115284457</v>
+        <v>1634.457234687601</v>
       </c>
       <c r="AD4" t="n">
-        <v>1241548.647295629</v>
+        <v>1320601.904798642</v>
       </c>
       <c r="AE4" t="n">
-        <v>1698741.632490496</v>
+        <v>1806905.786989699</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404599049373509e-06</v>
+        <v>2.752561574301482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.29305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1536616.115284457</v>
+        <v>1634457.234687601</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1224.091804032563</v>
+        <v>1303.145061535577</v>
       </c>
       <c r="AB5" t="n">
-        <v>1674.856409396398</v>
+        <v>1783.020563895602</v>
       </c>
       <c r="AC5" t="n">
-        <v>1515.010464359339</v>
+        <v>1612.851583762483</v>
       </c>
       <c r="AD5" t="n">
-        <v>1224091.804032563</v>
+        <v>1303145.061535577</v>
       </c>
       <c r="AE5" t="n">
-        <v>1674856.409396399</v>
+        <v>1783020.563895602</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>2.771412388220867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.17638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1515010.46435934</v>
+        <v>1612851.583762483</v>
       </c>
     </row>
     <row r="6">
@@ -15854,28 +15854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1235.504495529189</v>
+        <v>1314.557753032203</v>
       </c>
       <c r="AB6" t="n">
-        <v>1690.471757394496</v>
+        <v>1798.635911893699</v>
       </c>
       <c r="AC6" t="n">
-        <v>1529.135505460777</v>
+        <v>1626.97662486392</v>
       </c>
       <c r="AD6" t="n">
-        <v>1235504.495529189</v>
+        <v>1314557.753032203</v>
       </c>
       <c r="AE6" t="n">
-        <v>1690471.757394496</v>
+        <v>1798635.911893699</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>2.771412388220867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.17777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1529135.505460777</v>
+        <v>1626976.62486392</v>
       </c>
     </row>
   </sheetData>
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9488.613085518316</v>
+        <v>9691.956623118047</v>
       </c>
       <c r="AB2" t="n">
-        <v>12982.73903167236</v>
+        <v>13260.96263070007</v>
       </c>
       <c r="AC2" t="n">
-        <v>11743.68463987773</v>
+        <v>11995.3549691035</v>
       </c>
       <c r="AD2" t="n">
-        <v>9488613.085518317</v>
+        <v>9691956.623118047</v>
       </c>
       <c r="AE2" t="n">
-        <v>12982739.03167236</v>
+        <v>13260962.63070007</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.298901482186106e-07</v>
+        <v>9.116660419378669e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.19861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>11743684.63987773</v>
+        <v>11995354.9691035</v>
       </c>
     </row>
     <row r="3">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3900.677942443987</v>
+        <v>4022.615828123588</v>
       </c>
       <c r="AB3" t="n">
-        <v>5337.079646617784</v>
+        <v>5503.920441324472</v>
       </c>
       <c r="AC3" t="n">
-        <v>4827.716255782711</v>
+        <v>4978.633999205113</v>
       </c>
       <c r="AD3" t="n">
-        <v>3900677.942443987</v>
+        <v>4022615.828123588</v>
       </c>
       <c r="AE3" t="n">
-        <v>5337079.646617784</v>
+        <v>5503920.441324472</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.525104327001337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.43333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4827716.255782711</v>
+        <v>4978633.999205112</v>
       </c>
     </row>
     <row r="4">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3104.819125746952</v>
+        <v>3206.490939301092</v>
       </c>
       <c r="AB4" t="n">
-        <v>4248.150502799844</v>
+        <v>4387.262363548473</v>
       </c>
       <c r="AC4" t="n">
-        <v>3842.712981129144</v>
+        <v>3968.548201132642</v>
       </c>
       <c r="AD4" t="n">
-        <v>3104819.125746952</v>
+        <v>3206490.939301092</v>
       </c>
       <c r="AE4" t="n">
-        <v>4248150.502799843</v>
+        <v>4387262.363548473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.015959293493938e-06</v>
+        <v>1.747938871827246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>3842712.981129144</v>
+        <v>3968548.201132642</v>
       </c>
     </row>
     <row r="5">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2786.658321119973</v>
+        <v>2888.244793819542</v>
       </c>
       <c r="AB5" t="n">
-        <v>3812.828853645115</v>
+        <v>3951.823947271549</v>
       </c>
       <c r="AC5" t="n">
-        <v>3448.937819191988</v>
+        <v>3574.667416163547</v>
       </c>
       <c r="AD5" t="n">
-        <v>2786658.321119973</v>
+        <v>2888244.793819543</v>
       </c>
       <c r="AE5" t="n">
-        <v>3812828.853645116</v>
+        <v>3951823.947271549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.083709854358468e-06</v>
+        <v>1.86450243857798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.16805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>3448937.819191988</v>
+        <v>3574667.416163547</v>
       </c>
     </row>
     <row r="6">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2605.638565244692</v>
+        <v>2697.134672308815</v>
       </c>
       <c r="AB6" t="n">
-        <v>3565.149637628538</v>
+        <v>3690.33864783704</v>
       </c>
       <c r="AC6" t="n">
-        <v>3224.896759932078</v>
+        <v>3338.137906710155</v>
       </c>
       <c r="AD6" t="n">
-        <v>2605638.565244691</v>
+        <v>2697134.672308815</v>
       </c>
       <c r="AE6" t="n">
-        <v>3565149.637628538</v>
+        <v>3690338.64783704</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125137901509627e-06</v>
+        <v>1.935778615156244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.4625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3224896.759932077</v>
+        <v>3338137.906710155</v>
       </c>
     </row>
     <row r="7">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2492.59048311716</v>
+        <v>2584.086590181284</v>
       </c>
       <c r="AB7" t="n">
-        <v>3410.472264332245</v>
+        <v>3535.661274540747</v>
       </c>
       <c r="AC7" t="n">
-        <v>3084.981578052133</v>
+        <v>3198.22272483021</v>
       </c>
       <c r="AD7" t="n">
-        <v>2492590.48311716</v>
+        <v>2584086.590181284</v>
       </c>
       <c r="AE7" t="n">
-        <v>3410472.264332245</v>
+        <v>3535661.274540748</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.153853371015123e-06</v>
+        <v>1.98518304079894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.00277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3084981.578052132</v>
+        <v>3198222.72483021</v>
       </c>
     </row>
     <row r="8">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2401.565759884812</v>
+        <v>2493.147118294957</v>
       </c>
       <c r="AB8" t="n">
-        <v>3285.928222278366</v>
+        <v>3411.233877139518</v>
       </c>
       <c r="AC8" t="n">
-        <v>2972.32384457322</v>
+        <v>3085.670503602009</v>
       </c>
       <c r="AD8" t="n">
-        <v>2401565.759884812</v>
+        <v>2493147.118294957</v>
       </c>
       <c r="AE8" t="n">
-        <v>3285928.222278366</v>
+        <v>3411233.877139518</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.174193495248183e-06</v>
+        <v>2.020177842295849e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.69027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2972323.84457322</v>
+        <v>3085670.503602009</v>
       </c>
     </row>
     <row r="9">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2336.049589229813</v>
+        <v>2427.460355439366</v>
       </c>
       <c r="AB9" t="n">
-        <v>3196.286107218734</v>
+        <v>3321.358350305039</v>
       </c>
       <c r="AC9" t="n">
-        <v>2891.237047161384</v>
+        <v>3004.372570907523</v>
       </c>
       <c r="AD9" t="n">
-        <v>2336049.589229813</v>
+        <v>2427460.355439366</v>
       </c>
       <c r="AE9" t="n">
-        <v>3196286.107218734</v>
+        <v>3321358.350305039</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.190345946845024e-06</v>
+        <v>2.047967831719866e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.45138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2891237.047161384</v>
+        <v>3004372.570907523</v>
       </c>
     </row>
     <row r="10">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2286.238463472424</v>
+        <v>2377.649229681976</v>
       </c>
       <c r="AB10" t="n">
-        <v>3128.132327445693</v>
+        <v>3253.204570531998</v>
       </c>
       <c r="AC10" t="n">
-        <v>2829.587768475455</v>
+        <v>2942.723292221593</v>
       </c>
       <c r="AD10" t="n">
-        <v>2286238.463472424</v>
+        <v>2377649.229681976</v>
       </c>
       <c r="AE10" t="n">
-        <v>3128132.327445693</v>
+        <v>3253204.570531998</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.202460285542656e-06</v>
+        <v>2.068810323787878e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.275</v>
       </c>
       <c r="AH10" t="n">
-        <v>2829587.768475455</v>
+        <v>2942723.292221593</v>
       </c>
     </row>
     <row r="11">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2241.343602398912</v>
+        <v>2322.749343827591</v>
       </c>
       <c r="AB11" t="n">
-        <v>3066.705197903426</v>
+        <v>3178.088124693998</v>
       </c>
       <c r="AC11" t="n">
-        <v>2774.023157963185</v>
+        <v>2874.77585454778</v>
       </c>
       <c r="AD11" t="n">
-        <v>2241343.602398912</v>
+        <v>2322749.343827591</v>
       </c>
       <c r="AE11" t="n">
-        <v>3066705.197903426</v>
+        <v>3178088.124693998</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212181668448162e-06</v>
+        <v>2.085535780385665e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.13611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2774023.157963185</v>
+        <v>2874775.85454778</v>
       </c>
     </row>
     <row r="12">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2205.403062532816</v>
+        <v>2286.808803961496</v>
       </c>
       <c r="AB12" t="n">
-        <v>3017.529765673917</v>
+        <v>3128.912692464489</v>
       </c>
       <c r="AC12" t="n">
-        <v>2729.54095996751</v>
+        <v>2830.293656552106</v>
       </c>
       <c r="AD12" t="n">
-        <v>2205403.062532817</v>
+        <v>2286808.803961496</v>
       </c>
       <c r="AE12" t="n">
-        <v>3017529.765673917</v>
+        <v>3128912.692464489</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.220257894246583e-06</v>
+        <v>2.099430775097673e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.02222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>2729540.95996751</v>
+        <v>2830293.656552106</v>
       </c>
     </row>
     <row r="13">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2158.403575066445</v>
+        <v>2249.899592622021</v>
       </c>
       <c r="AB13" t="n">
-        <v>2953.222993451207</v>
+        <v>3078.411881190334</v>
       </c>
       <c r="AC13" t="n">
-        <v>2671.371535830727</v>
+        <v>2784.612571827622</v>
       </c>
       <c r="AD13" t="n">
-        <v>2158403.575066445</v>
+        <v>2249899.592622021</v>
       </c>
       <c r="AE13" t="n">
-        <v>2953222.993451206</v>
+        <v>3078411.881190334</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.227735881096973e-06</v>
+        <v>2.112296510942125e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.91944444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>2671371.535830727</v>
+        <v>2784612.571827622</v>
       </c>
     </row>
     <row r="14">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2124.303031280405</v>
+        <v>2215.799048835981</v>
       </c>
       <c r="AB14" t="n">
-        <v>2906.565125033331</v>
+        <v>3031.754012772455</v>
       </c>
       <c r="AC14" t="n">
-        <v>2629.166628889923</v>
+        <v>2742.407664886819</v>
       </c>
       <c r="AD14" t="n">
-        <v>2124303.031280405</v>
+        <v>2215799.048835981</v>
       </c>
       <c r="AE14" t="n">
-        <v>2906565.125033331</v>
+        <v>3031754.012772455</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.233269591366261e-06</v>
+        <v>2.121817155467019e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.84444444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>2629166.628889923</v>
+        <v>2742407.664886819</v>
       </c>
     </row>
     <row r="15">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2095.496863030844</v>
+        <v>2186.992880586417</v>
       </c>
       <c r="AB15" t="n">
-        <v>2867.15125479583</v>
+        <v>2992.340142534776</v>
       </c>
       <c r="AC15" t="n">
-        <v>2593.514363110175</v>
+        <v>2706.755399107024</v>
       </c>
       <c r="AD15" t="n">
-        <v>2095496.863030844</v>
+        <v>2186992.880586417</v>
       </c>
       <c r="AE15" t="n">
-        <v>2867151.25479583</v>
+        <v>2992340.142534776</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.237905943213503e-06</v>
+        <v>2.12979391169058e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.78055555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>2593514.363110175</v>
+        <v>2706755.399107024</v>
       </c>
     </row>
     <row r="16">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2068.721396667317</v>
+        <v>2160.21741422289</v>
       </c>
       <c r="AB16" t="n">
-        <v>2830.515880467045</v>
+        <v>2955.704768205991</v>
       </c>
       <c r="AC16" t="n">
-        <v>2560.375417489257</v>
+        <v>2673.616453486107</v>
       </c>
       <c r="AD16" t="n">
-        <v>2068721.396667317</v>
+        <v>2160217.41422289</v>
       </c>
       <c r="AE16" t="n">
-        <v>2830515.880467045</v>
+        <v>2955704.768205991</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.242093615849721e-06</v>
+        <v>2.136998723763473e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.72361111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2560375.417489258</v>
+        <v>2673616.453486107</v>
       </c>
     </row>
     <row r="17">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2038.878831213756</v>
+        <v>2130.37484876933</v>
       </c>
       <c r="AB17" t="n">
-        <v>2789.683965852413</v>
+        <v>2914.87285359136</v>
       </c>
       <c r="AC17" t="n">
-        <v>2523.440443497495</v>
+        <v>2636.681479494343</v>
       </c>
       <c r="AD17" t="n">
-        <v>2038878.831213756</v>
+        <v>2130374.848769329</v>
       </c>
       <c r="AE17" t="n">
-        <v>2789683.965852413</v>
+        <v>2914872.85359136</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.246430848222947e-06</v>
+        <v>2.144460850553255e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.66527777777777</v>
       </c>
       <c r="AH17" t="n">
-        <v>2523440.443497495</v>
+        <v>2636681.479494344</v>
       </c>
     </row>
     <row r="18">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2008.73404349048</v>
+        <v>2100.230061046054</v>
       </c>
       <c r="AB18" t="n">
-        <v>2748.438537395252</v>
+        <v>2873.627425134198</v>
       </c>
       <c r="AC18" t="n">
-        <v>2486.131420843963</v>
+        <v>2599.372456840812</v>
       </c>
       <c r="AD18" t="n">
-        <v>2008734.04349048</v>
+        <v>2100230.061046054</v>
       </c>
       <c r="AE18" t="n">
-        <v>2748438.537395252</v>
+        <v>2873627.425134198</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.249721162437118e-06</v>
+        <v>2.150121774324814e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.62222222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>2486131.420843963</v>
+        <v>2599372.456840812</v>
       </c>
     </row>
     <row r="19">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1982.677174453947</v>
+        <v>2074.17319200952</v>
       </c>
       <c r="AB19" t="n">
-        <v>2712.786379631536</v>
+        <v>2837.975267370482</v>
       </c>
       <c r="AC19" t="n">
-        <v>2453.881854979099</v>
+        <v>2567.122890975947</v>
       </c>
       <c r="AD19" t="n">
-        <v>1982677.174453947</v>
+        <v>2074173.19200952</v>
       </c>
       <c r="AE19" t="n">
-        <v>2712786.379631536</v>
+        <v>2837975.267370482</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.252861916914282e-06</v>
+        <v>2.155525383379484e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.58055555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>2453881.854979098</v>
+        <v>2567122.890975947</v>
       </c>
     </row>
     <row r="20">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1967.33565504939</v>
+        <v>2058.831672604963</v>
       </c>
       <c r="AB20" t="n">
-        <v>2691.795435962153</v>
+        <v>2816.9843237011</v>
       </c>
       <c r="AC20" t="n">
-        <v>2434.894257512547</v>
+        <v>2548.135293509396</v>
       </c>
       <c r="AD20" t="n">
-        <v>1967335.65504939</v>
+        <v>2058831.672604963</v>
       </c>
       <c r="AE20" t="n">
-        <v>2691795.435962153</v>
+        <v>2816984.323701099</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.254058394810344e-06</v>
+        <v>2.157583901114597e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.56388888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>2434894.257512547</v>
+        <v>2548135.293509396</v>
       </c>
     </row>
     <row r="21">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1955.645796904428</v>
+        <v>2047.141814460001</v>
       </c>
       <c r="AB21" t="n">
-        <v>2675.800856328071</v>
+        <v>2800.989744067018</v>
       </c>
       <c r="AC21" t="n">
-        <v>2420.426178110209</v>
+        <v>2533.667214107058</v>
       </c>
       <c r="AD21" t="n">
-        <v>1955645.796904428</v>
+        <v>2047141.814460001</v>
       </c>
       <c r="AE21" t="n">
-        <v>2675800.856328072</v>
+        <v>2800989.744067018</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.255853111654438e-06</v>
+        <v>2.160671677717265e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.54027777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>2420426.178110209</v>
+        <v>2533667.214107058</v>
       </c>
     </row>
     <row r="22">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1955.890836118068</v>
+        <v>2047.386853673641</v>
       </c>
       <c r="AB22" t="n">
-        <v>2676.136129790542</v>
+        <v>2801.325017529488</v>
       </c>
       <c r="AC22" t="n">
-        <v>2420.72945354398</v>
+        <v>2533.970489540829</v>
       </c>
       <c r="AD22" t="n">
-        <v>1955890.836118068</v>
+        <v>2047386.853673641</v>
       </c>
       <c r="AE22" t="n">
-        <v>2676136.129790542</v>
+        <v>2801325.017529488</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256750470076485e-06</v>
+        <v>2.162215566018599e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.52916666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2420729.45354398</v>
+        <v>2533970.489540828</v>
       </c>
     </row>
     <row r="23">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1962.78566609225</v>
+        <v>2054.281683647823</v>
       </c>
       <c r="AB23" t="n">
-        <v>2685.569940339647</v>
+        <v>2810.758828078594</v>
       </c>
       <c r="AC23" t="n">
-        <v>2429.262914454715</v>
+        <v>2542.503950451564</v>
       </c>
       <c r="AD23" t="n">
-        <v>1962785.66609225</v>
+        <v>2054281.683647823</v>
       </c>
       <c r="AE23" t="n">
-        <v>2685569.940339648</v>
+        <v>2810758.828078594</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>2.161700936584821e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.53333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>2429262.914454715</v>
+        <v>2542503.950451564</v>
       </c>
     </row>
     <row r="24">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1971.730144593924</v>
+        <v>2063.226162149497</v>
       </c>
       <c r="AB24" t="n">
-        <v>2697.80817042818</v>
+        <v>2822.997058167126</v>
       </c>
       <c r="AC24" t="n">
-        <v>2440.333145040062</v>
+        <v>2553.574181036911</v>
       </c>
       <c r="AD24" t="n">
-        <v>1971730.144593924</v>
+        <v>2063226.162149497</v>
       </c>
       <c r="AE24" t="n">
-        <v>2697808.17042818</v>
+        <v>2822997.058167126</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>2.161700936584821e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.53333333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>2440333.145040062</v>
+        <v>2553574.181036911</v>
       </c>
     </row>
   </sheetData>
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.520136420712</v>
+        <v>1686.609639903905</v>
       </c>
       <c r="AB2" t="n">
-        <v>2189.902260615836</v>
+        <v>2307.693717282384</v>
       </c>
       <c r="AC2" t="n">
-        <v>1980.901062409787</v>
+        <v>2087.450667773427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600520.136420712</v>
+        <v>1686609.639903904</v>
       </c>
       <c r="AE2" t="n">
-        <v>2189902.260615836</v>
+        <v>2307693.717282384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218898516343121e-06</v>
+        <v>2.443477558817054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.39444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1980901.062409787</v>
+        <v>2087450.667773427</v>
       </c>
     </row>
     <row r="3">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1179.057382761909</v>
+        <v>1256.6146621082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1613.238327435442</v>
+        <v>1719.35561862272</v>
       </c>
       <c r="AC3" t="n">
-        <v>1459.273125659216</v>
+        <v>1555.262731512134</v>
       </c>
       <c r="AD3" t="n">
-        <v>1179057.382761909</v>
+        <v>1256614.662108201</v>
       </c>
       <c r="AE3" t="n">
-        <v>1613238.327435442</v>
+        <v>1719355.61862272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402896706475386e-06</v>
+        <v>2.812331439942448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.71944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1459273.125659216</v>
+        <v>1555262.731512133</v>
       </c>
     </row>
     <row r="4">
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.777522870694</v>
+        <v>1212.164210016393</v>
       </c>
       <c r="AB4" t="n">
-        <v>1552.652669642734</v>
+        <v>1658.536549055165</v>
       </c>
       <c r="AC4" t="n">
-        <v>1404.469678013739</v>
+        <v>1500.248148584006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134777.522870694</v>
+        <v>1212164.210016393</v>
       </c>
       <c r="AE4" t="n">
-        <v>1552652.669642734</v>
+        <v>1658536.549055165</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.426343946657611e-06</v>
+        <v>2.859335193276521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.42916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1404469.678013739</v>
+        <v>1500248.148584006</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5885.995333572654</v>
+        <v>6052.666931516866</v>
       </c>
       <c r="AB2" t="n">
-        <v>8053.478487181968</v>
+        <v>8281.525920521202</v>
       </c>
       <c r="AC2" t="n">
-        <v>7284.865803493065</v>
+        <v>7491.148709860975</v>
       </c>
       <c r="AD2" t="n">
-        <v>5885995.333572654</v>
+        <v>6052666.931516865</v>
       </c>
       <c r="AE2" t="n">
-        <v>8053478.487181968</v>
+        <v>8281525.920521202</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.815110293661852e-07</v>
+        <v>1.207006673979335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.68611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>7284865.803493065</v>
+        <v>7491148.709860975</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3010.733921285541</v>
+        <v>3118.690690473006</v>
       </c>
       <c r="AB3" t="n">
-        <v>4119.418975309458</v>
+        <v>4267.130189628276</v>
       </c>
       <c r="AC3" t="n">
-        <v>3726.267409946612</v>
+        <v>3859.881273284828</v>
       </c>
       <c r="AD3" t="n">
-        <v>3010733.921285541</v>
+        <v>3118690.690473006</v>
       </c>
       <c r="AE3" t="n">
-        <v>4119418.975309458</v>
+        <v>4267130.189628276</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002286127149083e-06</v>
+        <v>1.775123207955918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3726267.409946612</v>
+        <v>3859881.273284828</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2500.398811318463</v>
+        <v>2598.37073656102</v>
       </c>
       <c r="AB4" t="n">
-        <v>3421.155963456396</v>
+        <v>3555.205473789565</v>
       </c>
       <c r="AC4" t="n">
-        <v>3094.64563992654</v>
+        <v>3215.901653133177</v>
       </c>
       <c r="AD4" t="n">
-        <v>2500398.811318463</v>
+        <v>2598370.73656102</v>
       </c>
       <c r="AE4" t="n">
-        <v>3421155.963456396</v>
+        <v>3555205.473789565</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.11563806427159e-06</v>
+        <v>1.97587791143092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.35555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>3094645.63992654</v>
+        <v>3215901.653133177</v>
       </c>
     </row>
     <row r="5">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2277.899220020634</v>
+        <v>2366.142234373449</v>
       </c>
       <c r="AB5" t="n">
-        <v>3116.7222066535</v>
+        <v>3237.460191898066</v>
       </c>
       <c r="AC5" t="n">
-        <v>2819.266613597463</v>
+        <v>2928.481534987109</v>
       </c>
       <c r="AD5" t="n">
-        <v>2277899.220020635</v>
+        <v>2366142.234373449</v>
       </c>
       <c r="AE5" t="n">
-        <v>3116722.2066535</v>
+        <v>3237460.191898066</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174257653153874e-06</v>
+        <v>2.079697559181367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.39166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2819266.613597463</v>
+        <v>2928481.534987109</v>
       </c>
     </row>
     <row r="6">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2140.434508587417</v>
+        <v>2238.406344321426</v>
       </c>
       <c r="AB6" t="n">
-        <v>2928.636923955337</v>
+        <v>3062.68631181913</v>
       </c>
       <c r="AC6" t="n">
-        <v>2649.131926300778</v>
+        <v>2770.387828726232</v>
       </c>
       <c r="AD6" t="n">
-        <v>2140434.508587417</v>
+        <v>2238406.344321426</v>
       </c>
       <c r="AE6" t="n">
-        <v>2928636.923955337</v>
+        <v>3062686.31181913</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.210331246312203e-06</v>
+        <v>2.143586573181642e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.84166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2649131.926300778</v>
+        <v>2770387.828726232</v>
       </c>
     </row>
     <row r="7">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2056.575863464997</v>
+        <v>2144.733536963239</v>
       </c>
       <c r="AB7" t="n">
-        <v>2813.897826116521</v>
+        <v>2934.519044238883</v>
       </c>
       <c r="AC7" t="n">
-        <v>2545.343366922364</v>
+        <v>2654.452665280069</v>
       </c>
       <c r="AD7" t="n">
-        <v>2056575.863464997</v>
+        <v>2144733.536963239</v>
       </c>
       <c r="AE7" t="n">
-        <v>2813897.826116521</v>
+        <v>2934519.044238883</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234121159041618e-06</v>
+        <v>2.1857202763801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.49722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>2545343.366922364</v>
+        <v>2654452.665280069</v>
       </c>
     </row>
     <row r="8">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1984.348571601551</v>
+        <v>2072.506245099793</v>
       </c>
       <c r="AB8" t="n">
-        <v>2715.073258945726</v>
+        <v>2835.694477068087</v>
       </c>
       <c r="AC8" t="n">
-        <v>2455.950477741198</v>
+        <v>2565.059776098903</v>
       </c>
       <c r="AD8" t="n">
-        <v>1984348.571601551</v>
+        <v>2072506.245099793</v>
       </c>
       <c r="AE8" t="n">
-        <v>2715073.258945726</v>
+        <v>2835694.477068087</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252935403749195e-06</v>
+        <v>2.219041701785416e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.23611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2455950.477741198</v>
+        <v>2565059.776098903</v>
       </c>
     </row>
     <row r="9">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1930.39841239573</v>
+        <v>2008.912515858801</v>
       </c>
       <c r="AB9" t="n">
-        <v>2641.256271007279</v>
+        <v>2748.682731163234</v>
       </c>
       <c r="AC9" t="n">
-        <v>2389.178479528803</v>
+        <v>2486.352309101456</v>
       </c>
       <c r="AD9" t="n">
-        <v>1930398.41239573</v>
+        <v>2008912.515858801</v>
       </c>
       <c r="AE9" t="n">
-        <v>2641256.271007279</v>
+        <v>2748682.731163234</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.265063594552426e-06</v>
+        <v>2.240521628906198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>2389178.479528802</v>
+        <v>2486352.309101456</v>
       </c>
     </row>
     <row r="10">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1875.652227297961</v>
+        <v>1963.895152142224</v>
       </c>
       <c r="AB10" t="n">
-        <v>2566.350125325282</v>
+        <v>2687.087988100292</v>
       </c>
       <c r="AC10" t="n">
-        <v>2321.42127125926</v>
+        <v>2430.636081867678</v>
       </c>
       <c r="AD10" t="n">
-        <v>1875652.227297961</v>
+        <v>1963895.152142224</v>
       </c>
       <c r="AE10" t="n">
-        <v>2566350.125325282</v>
+        <v>2687087.988100293</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.275947868350197e-06</v>
+        <v>2.259798486578695e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.925</v>
       </c>
       <c r="AH10" t="n">
-        <v>2321421.27125926</v>
+        <v>2430636.081867678</v>
       </c>
     </row>
     <row r="11">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1829.361199053944</v>
+        <v>1917.604123898207</v>
       </c>
       <c r="AB11" t="n">
-        <v>2503.012698265784</v>
+        <v>2623.750561040794</v>
       </c>
       <c r="AC11" t="n">
-        <v>2264.128679343683</v>
+        <v>2373.3434899521</v>
       </c>
       <c r="AD11" t="n">
-        <v>1829361.199053944</v>
+        <v>1917604.123898207</v>
       </c>
       <c r="AE11" t="n">
-        <v>2503012.698265784</v>
+        <v>2623750.561040794</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284655287388415e-06</v>
+        <v>2.275219972716692e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.81111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2264128.679343683</v>
+        <v>2373343.4899521</v>
       </c>
     </row>
     <row r="12">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1789.423538803377</v>
+        <v>1877.66646364764</v>
       </c>
       <c r="AB12" t="n">
-        <v>2448.36822958574</v>
+        <v>2569.10609236075</v>
       </c>
       <c r="AC12" t="n">
-        <v>2214.699402060468</v>
+        <v>2323.914212668886</v>
       </c>
       <c r="AD12" t="n">
-        <v>1789423.538803377</v>
+        <v>1877666.46364764</v>
       </c>
       <c r="AE12" t="n">
-        <v>2448368.22958574</v>
+        <v>2569106.09236075</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.291496830918443e-06</v>
+        <v>2.287336854682261e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.72083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2214699.402060468</v>
+        <v>2323914.212668886</v>
       </c>
     </row>
     <row r="13">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1752.179160285557</v>
+        <v>1840.42208512982</v>
       </c>
       <c r="AB13" t="n">
-        <v>2397.408827791642</v>
+        <v>2518.146690566652</v>
       </c>
       <c r="AC13" t="n">
-        <v>2168.60349405163</v>
+        <v>2277.818304660048</v>
       </c>
       <c r="AD13" t="n">
-        <v>1752179.160285557</v>
+        <v>1840422.08512982</v>
       </c>
       <c r="AE13" t="n">
-        <v>2397408.827791641</v>
+        <v>2518146.690566652</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.296783478191646e-06</v>
+        <v>2.296699899837474e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.65277777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2168603.49405163</v>
+        <v>2277818.304660048</v>
       </c>
     </row>
     <row r="14">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1728.178059679588</v>
+        <v>1816.420984523851</v>
       </c>
       <c r="AB14" t="n">
-        <v>2364.569463088727</v>
+        <v>2485.307325863737</v>
       </c>
       <c r="AC14" t="n">
-        <v>2138.898272225623</v>
+        <v>2248.113082834041</v>
       </c>
       <c r="AD14" t="n">
-        <v>1728178.059679588</v>
+        <v>1816420.984523851</v>
       </c>
       <c r="AE14" t="n">
-        <v>2364569.463088727</v>
+        <v>2485307.325863737</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.30082620845939e-06</v>
+        <v>2.303859875544402e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.60138888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2138898.272225623</v>
+        <v>2248113.082834041</v>
       </c>
     </row>
     <row r="15">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1726.418040849418</v>
+        <v>1814.660965693681</v>
       </c>
       <c r="AB15" t="n">
-        <v>2362.161327678737</v>
+        <v>2482.899190453748</v>
       </c>
       <c r="AC15" t="n">
-        <v>2136.719965879323</v>
+        <v>2245.934776487742</v>
       </c>
       <c r="AD15" t="n">
-        <v>1726418.040849418</v>
+        <v>1814660.965693681</v>
       </c>
       <c r="AE15" t="n">
-        <v>2362161.327678737</v>
+        <v>2482899.190453748</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.301448166962119e-06</v>
+        <v>2.304961410268545e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.59305555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>2136719.965879323</v>
+        <v>2245934.776487742</v>
       </c>
     </row>
     <row r="16">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1734.525633522893</v>
+        <v>1822.768558367157</v>
       </c>
       <c r="AB16" t="n">
-        <v>2373.254493656332</v>
+        <v>2493.992356431342</v>
       </c>
       <c r="AC16" t="n">
-        <v>2146.754415665373</v>
+        <v>2255.969226273791</v>
       </c>
       <c r="AD16" t="n">
-        <v>1734525.633522894</v>
+        <v>1822768.558367157</v>
       </c>
       <c r="AE16" t="n">
-        <v>2373254.493656332</v>
+        <v>2493992.356431342</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.301292677336437e-06</v>
+        <v>2.304686026587508e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.59583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2146754.415665373</v>
+        <v>2255969.226273791</v>
       </c>
     </row>
     <row r="17">
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1743.725656966789</v>
+        <v>1831.968581811052</v>
       </c>
       <c r="AB17" t="n">
-        <v>2385.842371608658</v>
+        <v>2506.580234383669</v>
       </c>
       <c r="AC17" t="n">
-        <v>2158.140924213127</v>
+        <v>2267.355734821545</v>
       </c>
       <c r="AD17" t="n">
-        <v>1743725.656966789</v>
+        <v>1831968.581811052</v>
       </c>
       <c r="AE17" t="n">
-        <v>2385842.371608658</v>
+        <v>2506580.234383669</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.301137187710755e-06</v>
+        <v>2.304410642906473e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>2158140.924213127</v>
+        <v>2267355.734821545</v>
       </c>
     </row>
   </sheetData>
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7464.040505268913</v>
+        <v>7643.909363557183</v>
       </c>
       <c r="AB2" t="n">
-        <v>10212.62950953646</v>
+        <v>10458.73401670047</v>
       </c>
       <c r="AC2" t="n">
-        <v>9237.950482661457</v>
+        <v>9460.567121071572</v>
       </c>
       <c r="AD2" t="n">
-        <v>7464040.505268913</v>
+        <v>7643909.363557182</v>
       </c>
       <c r="AE2" t="n">
-        <v>10212629.50953646</v>
+        <v>10458734.01670047</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.0223502414359e-07</v>
+        <v>1.050245295423276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9237950.482661458</v>
+        <v>9460567.121071571</v>
       </c>
     </row>
     <row r="3">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3435.894260404643</v>
+        <v>3555.664627675387</v>
       </c>
       <c r="AB3" t="n">
-        <v>4701.142108042623</v>
+        <v>4865.017208438149</v>
       </c>
       <c r="AC3" t="n">
-        <v>4252.471703345245</v>
+        <v>4400.706794159166</v>
       </c>
       <c r="AD3" t="n">
-        <v>3435894.260404643</v>
+        <v>3555664.627675387</v>
       </c>
       <c r="AE3" t="n">
-        <v>4701142.108042623</v>
+        <v>4865017.20843815</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.427347152543727e-07</v>
+        <v>1.644047024558369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.44722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>4252471.703345246</v>
+        <v>4400706.794159166</v>
       </c>
     </row>
     <row r="4">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2789.913707626774</v>
+        <v>2899.767134549713</v>
       </c>
       <c r="AB4" t="n">
-        <v>3817.283017081238</v>
+        <v>3967.589322188366</v>
       </c>
       <c r="AC4" t="n">
-        <v>3452.966883521224</v>
+        <v>3588.928165825146</v>
       </c>
       <c r="AD4" t="n">
-        <v>2789913.707626774</v>
+        <v>2899767.134549713</v>
       </c>
       <c r="AE4" t="n">
-        <v>3817283.017081238</v>
+        <v>3967589.322188366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064613799320872e-06</v>
+        <v>1.856593504785696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3452966.883521224</v>
+        <v>3588928.165825146</v>
       </c>
     </row>
     <row r="5">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2526.416845824778</v>
+        <v>2626.353421908463</v>
       </c>
       <c r="AB5" t="n">
-        <v>3456.754986102611</v>
+        <v>3593.492618390889</v>
       </c>
       <c r="AC5" t="n">
-        <v>3126.847141814941</v>
+        <v>3250.534726390093</v>
       </c>
       <c r="AD5" t="n">
-        <v>2526416.845824778</v>
+        <v>2626353.421908463</v>
       </c>
       <c r="AE5" t="n">
-        <v>3456754.986102611</v>
+        <v>3593492.618390889</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12692448104987e-06</v>
+        <v>1.965257892801916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.77638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>3126847.141814941</v>
+        <v>3250534.726390093</v>
       </c>
     </row>
     <row r="6">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2379.865717206223</v>
+        <v>2469.800191104633</v>
       </c>
       <c r="AB6" t="n">
-        <v>3256.237266547201</v>
+        <v>3379.28958136398</v>
       </c>
       <c r="AC6" t="n">
-        <v>2945.46655198552</v>
+        <v>3056.77492658119</v>
       </c>
       <c r="AD6" t="n">
-        <v>2379865.717206223</v>
+        <v>2469800.191104633</v>
       </c>
       <c r="AE6" t="n">
-        <v>3256237.266547201</v>
+        <v>3379289.58136398</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16592578795115e-06</v>
+        <v>2.033272766474661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.14861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2945466.55198552</v>
+        <v>3056774.92658119</v>
       </c>
     </row>
     <row r="7">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2271.446291325292</v>
+        <v>2361.466016569723</v>
       </c>
       <c r="AB7" t="n">
-        <v>3107.893024929409</v>
+        <v>3231.061984398838</v>
       </c>
       <c r="AC7" t="n">
-        <v>2811.280076585285</v>
+        <v>2922.693963431667</v>
       </c>
       <c r="AD7" t="n">
-        <v>2271446.291325293</v>
+        <v>2361466.016569723</v>
       </c>
       <c r="AE7" t="n">
-        <v>3107893.024929409</v>
+        <v>3231061.984398838</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.192129791025447e-06</v>
+        <v>2.078970259723536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.74861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2811280.076585285</v>
+        <v>2922693.963431667</v>
       </c>
     </row>
     <row r="8">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2200.217087096511</v>
+        <v>2290.06622014035</v>
       </c>
       <c r="AB8" t="n">
-        <v>3010.434085292876</v>
+        <v>3133.369632987457</v>
       </c>
       <c r="AC8" t="n">
-        <v>2723.122481363185</v>
+        <v>2834.325232926916</v>
       </c>
       <c r="AD8" t="n">
-        <v>2200217.087096511</v>
+        <v>2290066.22014035</v>
       </c>
       <c r="AE8" t="n">
-        <v>3010434.085292876</v>
+        <v>3133369.632987457</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.210716351345588e-06</v>
+        <v>2.111383597958203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.47638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2723122.481363185</v>
+        <v>2834325.232926916</v>
       </c>
     </row>
     <row r="9">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2139.294136569977</v>
+        <v>2229.143269613818</v>
       </c>
       <c r="AB9" t="n">
-        <v>2927.076616651412</v>
+        <v>3050.012164346165</v>
       </c>
       <c r="AC9" t="n">
-        <v>2647.720532536035</v>
+        <v>2758.923284099811</v>
       </c>
       <c r="AD9" t="n">
-        <v>2139294.136569977</v>
+        <v>2229143.269613818</v>
       </c>
       <c r="AE9" t="n">
-        <v>2927076.616651412</v>
+        <v>3050012.164346165</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.22640828341915e-06</v>
+        <v>2.138748957287471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.25416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2647720.532536035</v>
+        <v>2758923.284099811</v>
       </c>
     </row>
     <row r="10">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2090.636944001918</v>
+        <v>2170.654567061074</v>
       </c>
       <c r="AB10" t="n">
-        <v>2860.501699175958</v>
+        <v>2969.985341173881</v>
       </c>
       <c r="AC10" t="n">
-        <v>2587.499431745954</v>
+        <v>2686.534108612852</v>
       </c>
       <c r="AD10" t="n">
-        <v>2090636.944001918</v>
+        <v>2170654.567061075</v>
       </c>
       <c r="AE10" t="n">
-        <v>2860501.699175958</v>
+        <v>2969985.341173881</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.237377400985135e-06</v>
+        <v>2.157878140507931e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>2587499.431745954</v>
+        <v>2686534.108612852</v>
       </c>
     </row>
     <row r="11">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2037.713949727308</v>
+        <v>2127.648334117167</v>
       </c>
       <c r="AB11" t="n">
-        <v>2788.090123611711</v>
+        <v>2911.142315958935</v>
       </c>
       <c r="AC11" t="n">
-        <v>2521.998715323274</v>
+        <v>2633.306979137715</v>
       </c>
       <c r="AD11" t="n">
-        <v>2037713.949727308</v>
+        <v>2127648.334117168</v>
       </c>
       <c r="AE11" t="n">
-        <v>2788090.123611711</v>
+        <v>2911142.315958935</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24590893686979e-06</v>
+        <v>2.172756394123843e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.98472222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>2521998.715323274</v>
+        <v>2633306.979137715</v>
       </c>
     </row>
     <row r="12">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1999.029864465316</v>
+        <v>2088.964248855175</v>
       </c>
       <c r="AB12" t="n">
-        <v>2735.160851534858</v>
+        <v>2858.213043882082</v>
       </c>
       <c r="AC12" t="n">
-        <v>2474.120938686736</v>
+        <v>2585.429202501177</v>
       </c>
       <c r="AD12" t="n">
-        <v>1999029.864465316</v>
+        <v>2088964.248855175</v>
       </c>
       <c r="AE12" t="n">
-        <v>2735160.851534858</v>
+        <v>2858213.043882082</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.254135775044278e-06</v>
+        <v>2.187103281539188e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.87222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>2474120.938686736</v>
+        <v>2585429.202501177</v>
       </c>
     </row>
     <row r="13">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1962.292901328364</v>
+        <v>2052.227285718223</v>
       </c>
       <c r="AB13" t="n">
-        <v>2684.895717850452</v>
+        <v>2807.947910197676</v>
       </c>
       <c r="AC13" t="n">
-        <v>2428.653038813612</v>
+        <v>2539.961302628053</v>
       </c>
       <c r="AD13" t="n">
-        <v>1962292.901328364</v>
+        <v>2052227.285718224</v>
       </c>
       <c r="AE13" t="n">
-        <v>2684895.717850452</v>
+        <v>2807947.910197676</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.260229729247604e-06</v>
+        <v>2.197730605550555e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.79027777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2428653.038813611</v>
+        <v>2539961.302628053</v>
       </c>
     </row>
     <row r="14">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1928.47299409648</v>
+        <v>2018.407378486339</v>
       </c>
       <c r="AB14" t="n">
-        <v>2638.621828746784</v>
+        <v>2761.674021094008</v>
       </c>
       <c r="AC14" t="n">
-        <v>2386.795464740186</v>
+        <v>2498.103728554627</v>
       </c>
       <c r="AD14" t="n">
-        <v>1928472.99409648</v>
+        <v>2018407.378486339</v>
       </c>
       <c r="AE14" t="n">
-        <v>2638621.828746784</v>
+        <v>2761674.021094008</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.266171334595845e-06</v>
+        <v>2.208092246461636e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.71111111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>2386795.464740186</v>
+        <v>2498103.728554627</v>
       </c>
     </row>
     <row r="15">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1894.631727374098</v>
+        <v>1984.566111763957</v>
       </c>
       <c r="AB15" t="n">
-        <v>2592.318714645902</v>
+        <v>2715.370906993126</v>
       </c>
       <c r="AC15" t="n">
-        <v>2344.911454862263</v>
+        <v>2456.219718676704</v>
       </c>
       <c r="AD15" t="n">
-        <v>1894631.727374098</v>
+        <v>1984566.111763957</v>
       </c>
       <c r="AE15" t="n">
-        <v>2592318.714645902</v>
+        <v>2715370.906993126</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.270589451393256e-06</v>
+        <v>2.215797056369877e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.65277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>2344911.454862264</v>
+        <v>2456219.718676704</v>
       </c>
     </row>
     <row r="16">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1859.628172928526</v>
+        <v>1949.562557318385</v>
       </c>
       <c r="AB16" t="n">
-        <v>2544.425307205635</v>
+        <v>2667.47749955286</v>
       </c>
       <c r="AC16" t="n">
-        <v>2301.588927009277</v>
+        <v>2412.897190823718</v>
       </c>
       <c r="AD16" t="n">
-        <v>1859628.172928526</v>
+        <v>1949562.557318385</v>
       </c>
       <c r="AE16" t="n">
-        <v>2544425.307205636</v>
+        <v>2667477.499552859</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2747028704805e-06</v>
+        <v>2.222970500077549e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.59861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2301588.927009277</v>
+        <v>2412897.190823718</v>
       </c>
     </row>
     <row r="17">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1843.107110258926</v>
+        <v>1933.041494648785</v>
       </c>
       <c r="AB17" t="n">
-        <v>2521.820460403243</v>
+        <v>2644.872652750466</v>
       </c>
       <c r="AC17" t="n">
-        <v>2281.141455059602</v>
+        <v>2392.449718874044</v>
       </c>
       <c r="AD17" t="n">
-        <v>1843107.110258925</v>
+        <v>1933041.494648785</v>
       </c>
       <c r="AE17" t="n">
-        <v>2521820.460403244</v>
+        <v>2644872.652750466</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.276835754451664e-06</v>
+        <v>2.226690063481527e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.57222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>2281141.455059602</v>
+        <v>2392449.718874044</v>
       </c>
     </row>
     <row r="18">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1840.992130407559</v>
+        <v>1930.926514797418</v>
       </c>
       <c r="AB18" t="n">
-        <v>2518.926651664277</v>
+        <v>2641.978844011501</v>
       </c>
       <c r="AC18" t="n">
-        <v>2278.523827365198</v>
+        <v>2389.832091179639</v>
       </c>
       <c r="AD18" t="n">
-        <v>1840992.130407559</v>
+        <v>1930926.514797418</v>
       </c>
       <c r="AE18" t="n">
-        <v>2518926.651664277</v>
+        <v>2641978.844011501</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.27759749872708e-06</v>
+        <v>2.228018478982948e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2278523.827365198</v>
+        <v>2389832.091179639</v>
       </c>
     </row>
     <row r="19">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1847.459388650884</v>
+        <v>1937.393773040744</v>
       </c>
       <c r="AB19" t="n">
-        <v>2527.775439708092</v>
+        <v>2650.827632055316</v>
       </c>
       <c r="AC19" t="n">
-        <v>2286.528099497464</v>
+        <v>2397.836363311904</v>
       </c>
       <c r="AD19" t="n">
-        <v>1847459.388650884</v>
+        <v>1937393.773040744</v>
       </c>
       <c r="AE19" t="n">
-        <v>2527775.439708092</v>
+        <v>2650827.632055316</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277749847582163e-06</v>
+        <v>2.228284162083232e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.55972222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>2286528.099497464</v>
+        <v>2397836.363311904</v>
       </c>
     </row>
     <row r="20">
@@ -23084,28 +23084,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1852.525912234255</v>
+        <v>1942.460296624114</v>
       </c>
       <c r="AB20" t="n">
-        <v>2534.707680794105</v>
+        <v>2657.759873141328</v>
       </c>
       <c r="AC20" t="n">
-        <v>2292.798737223688</v>
+        <v>2404.107001038129</v>
       </c>
       <c r="AD20" t="n">
-        <v>1852525.912234254</v>
+        <v>1942460.296624114</v>
       </c>
       <c r="AE20" t="n">
-        <v>2534707.680794105</v>
+        <v>2657759.873141328</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.278663940712662e-06</v>
+        <v>2.229878260684937e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.54861111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>2292798.737223688</v>
+        <v>2404107.001038129</v>
       </c>
     </row>
   </sheetData>
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12221.15593663412</v>
+        <v>12448.49404241279</v>
       </c>
       <c r="AB2" t="n">
-        <v>16721.52471185173</v>
+        <v>17032.5787376275</v>
       </c>
       <c r="AC2" t="n">
-        <v>15125.6458621593</v>
+        <v>15407.01332828209</v>
       </c>
       <c r="AD2" t="n">
-        <v>12221155.93663413</v>
+        <v>12448494.04241279</v>
       </c>
       <c r="AE2" t="n">
-        <v>16721524.71185173</v>
+        <v>17032578.7376275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.623271896862581e-07</v>
+        <v>7.859255810947022e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.17638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>15125645.8621593</v>
+        <v>15407013.32828209</v>
       </c>
     </row>
     <row r="3">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4402.281498248176</v>
+        <v>4536.412094403054</v>
       </c>
       <c r="AB3" t="n">
-        <v>6023.395760856198</v>
+        <v>6206.919159939584</v>
       </c>
       <c r="AC3" t="n">
-        <v>5448.5313233289</v>
+        <v>5614.53950678047</v>
       </c>
       <c r="AD3" t="n">
-        <v>4402281.498248176</v>
+        <v>4536412.094403054</v>
       </c>
       <c r="AE3" t="n">
-        <v>6023395.760856198</v>
+        <v>6206919.159939583</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.343652908014721e-07</v>
+        <v>1.418365695652462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.48055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>5448531.3233289</v>
+        <v>5614539.50678047</v>
       </c>
     </row>
     <row r="4">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3431.765314550909</v>
+        <v>3535.139657297954</v>
       </c>
       <c r="AB4" t="n">
-        <v>4695.492702169308</v>
+        <v>4836.934038469958</v>
       </c>
       <c r="AC4" t="n">
-        <v>4247.36146883949</v>
+        <v>4375.303842517763</v>
       </c>
       <c r="AD4" t="n">
-        <v>3431765.314550909</v>
+        <v>3535139.657297954</v>
       </c>
       <c r="AE4" t="n">
-        <v>4695492.702169308</v>
+        <v>4836934.038469958</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.709753287208532e-07</v>
+        <v>1.650593706096793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4247361.46883949</v>
+        <v>4375303.842517762</v>
       </c>
     </row>
     <row r="5">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3040.159961634614</v>
+        <v>3143.534214873108</v>
       </c>
       <c r="AB5" t="n">
-        <v>4159.680981900342</v>
+        <v>4301.122195731443</v>
       </c>
       <c r="AC5" t="n">
-        <v>3762.686867136541</v>
+        <v>3890.629130033586</v>
       </c>
       <c r="AD5" t="n">
-        <v>3040159.961634615</v>
+        <v>3143534.214873109</v>
       </c>
       <c r="AE5" t="n">
-        <v>4159680.981900342</v>
+        <v>4301122.195731442</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.043471290716822e-06</v>
+        <v>1.773832036720104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.57222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3762686.867136541</v>
+        <v>3890629.130033586</v>
       </c>
     </row>
     <row r="6">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2828.744325883691</v>
+        <v>2932.033238267612</v>
       </c>
       <c r="AB6" t="n">
-        <v>3870.412782066328</v>
+        <v>4011.737228775231</v>
       </c>
       <c r="AC6" t="n">
-        <v>3501.026018304228</v>
+        <v>3628.862658169335</v>
       </c>
       <c r="AD6" t="n">
-        <v>2828744.325883691</v>
+        <v>2932033.238267613</v>
       </c>
       <c r="AE6" t="n">
-        <v>3870412.782066328</v>
+        <v>4011737.228775231</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.08832173373664e-06</v>
+        <v>1.850074817328846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.76527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>3501026.018304228</v>
+        <v>3628862.658169335</v>
       </c>
     </row>
     <row r="7">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2703.178591107436</v>
+        <v>2796.13016767606</v>
       </c>
       <c r="AB7" t="n">
-        <v>3698.608204176191</v>
+        <v>3825.788651971532</v>
       </c>
       <c r="AC7" t="n">
-        <v>3345.618228198693</v>
+        <v>3460.660752555321</v>
       </c>
       <c r="AD7" t="n">
-        <v>2703178.591107436</v>
+        <v>2796130.16767606</v>
       </c>
       <c r="AE7" t="n">
-        <v>3698608.204176191</v>
+        <v>3825788.651971532</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118025961572716e-06</v>
+        <v>1.90057003596152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.26805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>3345618.228198693</v>
+        <v>3460660.752555321</v>
       </c>
     </row>
     <row r="8">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2601.183275531202</v>
+        <v>2704.386847060552</v>
       </c>
       <c r="AB8" t="n">
-        <v>3559.053713689031</v>
+        <v>3700.261393275735</v>
       </c>
       <c r="AC8" t="n">
-        <v>3219.382622417675</v>
+        <v>3347.113639250843</v>
       </c>
       <c r="AD8" t="n">
-        <v>2601183.275531202</v>
+        <v>2704386.847060552</v>
       </c>
       <c r="AE8" t="n">
-        <v>3559053.713689031</v>
+        <v>3700261.393275735</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140230607133348e-06</v>
+        <v>1.938316461771094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.9125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3219382.622417675</v>
+        <v>3347113.639250843</v>
       </c>
     </row>
     <row r="9">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2533.840385848071</v>
+        <v>2626.877213762716</v>
       </c>
       <c r="AB9" t="n">
-        <v>3466.912201065953</v>
+        <v>3594.209293513944</v>
       </c>
       <c r="AC9" t="n">
-        <v>3136.034966437922</v>
+        <v>3251.183003045263</v>
       </c>
       <c r="AD9" t="n">
-        <v>2533840.38584807</v>
+        <v>2626877.213762715</v>
       </c>
       <c r="AE9" t="n">
-        <v>3466912.201065953</v>
+        <v>3594209.293513943</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.156700278012756e-06</v>
+        <v>1.966313810715944e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.65694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>3136034.966437922</v>
+        <v>3251183.003045263</v>
       </c>
     </row>
     <row r="10">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2478.839968826672</v>
+        <v>2571.706204540724</v>
       </c>
       <c r="AB10" t="n">
-        <v>3391.658204050122</v>
+        <v>3518.721884723265</v>
       </c>
       <c r="AC10" t="n">
-        <v>3067.963105277637</v>
+        <v>3182.900006602326</v>
       </c>
       <c r="AD10" t="n">
-        <v>2478839.968826672</v>
+        <v>2571706.204540724</v>
       </c>
       <c r="AE10" t="n">
-        <v>3391658.204050122</v>
+        <v>3518721.884723265</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.169493683070869e-06</v>
+        <v>1.988061751414175e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.46388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>3067963.105277637</v>
+        <v>3182900.006602326</v>
       </c>
     </row>
     <row r="11">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2428.597763787487</v>
+        <v>2521.46399950154</v>
       </c>
       <c r="AB11" t="n">
-        <v>3322.914602585854</v>
+        <v>3449.978283258997</v>
       </c>
       <c r="AC11" t="n">
-        <v>3005.780296654871</v>
+        <v>3120.71719797956</v>
       </c>
       <c r="AD11" t="n">
-        <v>2428597.763787487</v>
+        <v>2521463.999501539</v>
       </c>
       <c r="AE11" t="n">
-        <v>3322914.602585854</v>
+        <v>3449978.283258997</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.180816581800462e-06</v>
+        <v>2.007309928813759e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.29583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3005780.296654871</v>
+        <v>3120717.19797956</v>
       </c>
     </row>
     <row r="12">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2389.466151437393</v>
+        <v>2482.332387151445</v>
       </c>
       <c r="AB12" t="n">
-        <v>3269.373004203555</v>
+        <v>3396.436684876698</v>
       </c>
       <c r="AC12" t="n">
-        <v>2957.348633276074</v>
+        <v>3072.285534600765</v>
       </c>
       <c r="AD12" t="n">
-        <v>2389466.151437393</v>
+        <v>2482332.387151445</v>
       </c>
       <c r="AE12" t="n">
-        <v>3269373.004203555</v>
+        <v>3396436.684876698</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.189786670404426e-06</v>
+        <v>2.022558484935507e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.16527777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2957348.633276075</v>
+        <v>3072285.534600765</v>
       </c>
     </row>
     <row r="13">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2355.823955692712</v>
+        <v>2438.523447792058</v>
       </c>
       <c r="AB13" t="n">
-        <v>3223.342267796752</v>
+        <v>3336.495361331181</v>
       </c>
       <c r="AC13" t="n">
-        <v>2915.711005747395</v>
+        <v>3018.064926846257</v>
       </c>
       <c r="AD13" t="n">
-        <v>2355823.955692712</v>
+        <v>2438523.447792057</v>
       </c>
       <c r="AE13" t="n">
-        <v>3223342.267796752</v>
+        <v>3336495.361331181</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196403948882759e-06</v>
+        <v>2.03380741977942e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.07083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2915711.005747395</v>
+        <v>3018064.926846257</v>
       </c>
     </row>
     <row r="14">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2315.310930960135</v>
+        <v>2408.262418020208</v>
       </c>
       <c r="AB14" t="n">
-        <v>3167.910560049129</v>
+        <v>3295.090885374922</v>
       </c>
       <c r="AC14" t="n">
-        <v>2865.569622388316</v>
+        <v>2980.612035963718</v>
       </c>
       <c r="AD14" t="n">
-        <v>2315310.930960136</v>
+        <v>2408262.418020208</v>
       </c>
       <c r="AE14" t="n">
-        <v>3167910.560049129</v>
+        <v>3295090.885374922</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.202580075462538e-06</v>
+        <v>2.044306425633739e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.98333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2865569.622388316</v>
+        <v>2980612.035963718</v>
       </c>
     </row>
     <row r="15">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2287.247526950731</v>
+        <v>2380.199014010804</v>
       </c>
       <c r="AB15" t="n">
-        <v>3129.512972613453</v>
+        <v>3256.693297939246</v>
       </c>
       <c r="AC15" t="n">
-        <v>2830.836646806151</v>
+        <v>2945.879060381553</v>
       </c>
       <c r="AD15" t="n">
-        <v>2287247.526950731</v>
+        <v>2380199.014010804</v>
       </c>
       <c r="AE15" t="n">
-        <v>3129512.972613453</v>
+        <v>3256693.297939247</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207873898245205e-06</v>
+        <v>2.053305573508869e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.90833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2830836.646806151</v>
+        <v>2945879.060381553</v>
       </c>
     </row>
     <row r="16">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2255.015325840696</v>
+        <v>2347.966812900768</v>
       </c>
       <c r="AB16" t="n">
-        <v>3085.411453070345</v>
+        <v>3212.591778396139</v>
       </c>
       <c r="AC16" t="n">
-        <v>2790.944114391367</v>
+        <v>2905.986527966769</v>
       </c>
       <c r="AD16" t="n">
-        <v>2255015.325840696</v>
+        <v>2347966.812900768</v>
       </c>
       <c r="AE16" t="n">
-        <v>3085411.453070345</v>
+        <v>3212591.778396139</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.212873619762168e-06</v>
+        <v>2.06180476872427e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.8375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2790944.114391367</v>
+        <v>2905986.527966769</v>
       </c>
     </row>
     <row r="17">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2228.863835158223</v>
+        <v>2321.815322218296</v>
       </c>
       <c r="AB17" t="n">
-        <v>3049.629829796242</v>
+        <v>3176.810155122035</v>
       </c>
       <c r="AC17" t="n">
-        <v>2758.577439022721</v>
+        <v>2873.619852598124</v>
       </c>
       <c r="AD17" t="n">
-        <v>2228863.835158223</v>
+        <v>2321815.322218296</v>
       </c>
       <c r="AE17" t="n">
-        <v>3049629.829796242</v>
+        <v>3176810.155122035</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.069554034950076e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.77638888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>2758577.439022721</v>
+        <v>2873619.852598124</v>
       </c>
     </row>
     <row r="18">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2206.365372866955</v>
+        <v>2299.316859927028</v>
       </c>
       <c r="AB18" t="n">
-        <v>3018.846441127221</v>
+        <v>3146.026766453014</v>
       </c>
       <c r="AC18" t="n">
-        <v>2730.731973763516</v>
+        <v>2845.774387338919</v>
       </c>
       <c r="AD18" t="n">
-        <v>2206365.372866955</v>
+        <v>2299316.859927027</v>
       </c>
       <c r="AE18" t="n">
-        <v>3018846.441127221</v>
+        <v>3146026.766453014</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.220520252670465e-06</v>
+        <v>2.074803537877235e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2730731.973763516</v>
+        <v>2845774.387338919</v>
       </c>
     </row>
     <row r="19">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2183.280911449327</v>
+        <v>2276.232398509402</v>
       </c>
       <c r="AB19" t="n">
-        <v>2987.261262600889</v>
+        <v>3114.441587926856</v>
       </c>
       <c r="AC19" t="n">
-        <v>2702.161240345774</v>
+        <v>2817.203653921221</v>
       </c>
       <c r="AD19" t="n">
-        <v>2183280.911449327</v>
+        <v>2276232.398509402</v>
       </c>
       <c r="AE19" t="n">
-        <v>2987261.262600888</v>
+        <v>3114441.587926856</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.22404946785891e-06</v>
+        <v>2.080802969793989e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.68472222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>2702161.240345774</v>
+        <v>2817203.653921221</v>
       </c>
     </row>
     <row r="20">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2152.100947062333</v>
+        <v>2245.052434122409</v>
       </c>
       <c r="AB20" t="n">
-        <v>2944.599459763658</v>
+        <v>3071.779785089623</v>
       </c>
       <c r="AC20" t="n">
-        <v>2663.571020095112</v>
+        <v>2778.61343367056</v>
       </c>
       <c r="AD20" t="n">
-        <v>2152100.947062334</v>
+        <v>2245052.434122409</v>
       </c>
       <c r="AE20" t="n">
-        <v>2944599.459763658</v>
+        <v>3071779.785089623</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.227284581781651e-06</v>
+        <v>2.086302449051013e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.64166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2663571.020095112</v>
+        <v>2778613.433670559</v>
       </c>
     </row>
     <row r="21">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2138.090126720947</v>
+        <v>2231.041613781021</v>
       </c>
       <c r="AB21" t="n">
-        <v>2925.429237258802</v>
+        <v>3052.609562584767</v>
       </c>
       <c r="AC21" t="n">
-        <v>2646.230376720544</v>
+        <v>2761.27279029599</v>
       </c>
       <c r="AD21" t="n">
-        <v>2138090.126720946</v>
+        <v>2231041.613781021</v>
       </c>
       <c r="AE21" t="n">
-        <v>2925429.237258803</v>
+        <v>3052609.562584767</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229049189375873e-06</v>
+        <v>2.08930216500939e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.61666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2646230.376720543</v>
+        <v>2761272.790295991</v>
       </c>
     </row>
     <row r="22">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2119.560559424185</v>
+        <v>2212.51204648426</v>
       </c>
       <c r="AB22" t="n">
-        <v>2900.076265816559</v>
+        <v>3027.256591142521</v>
       </c>
       <c r="AC22" t="n">
-        <v>2623.297057289628</v>
+        <v>2738.339470865075</v>
       </c>
       <c r="AD22" t="n">
-        <v>2119560.559424185</v>
+        <v>2212512.04648426</v>
       </c>
       <c r="AE22" t="n">
-        <v>2900076.265816559</v>
+        <v>3027256.591142521</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.231549050134355e-06</v>
+        <v>2.09355176261709e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.58472222222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>2623297.057289628</v>
+        <v>2738339.470865075</v>
       </c>
     </row>
     <row r="23">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2091.212642189332</v>
+        <v>2184.164129249405</v>
       </c>
       <c r="AB23" t="n">
-        <v>2861.289394833989</v>
+        <v>2988.469720159775</v>
       </c>
       <c r="AC23" t="n">
-        <v>2588.21195083592</v>
+        <v>2703.254364411321</v>
       </c>
       <c r="AD23" t="n">
-        <v>2091212.642189332</v>
+        <v>2184164.129249405</v>
       </c>
       <c r="AE23" t="n">
-        <v>2861289.394833989</v>
+        <v>2988469.720159775</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234195961525688e-06</v>
+        <v>2.098051336554655e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.54722222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>2588211.95083592</v>
+        <v>2703254.364411321</v>
       </c>
     </row>
     <row r="24">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2079.986642665891</v>
+        <v>2172.938129725964</v>
       </c>
       <c r="AB24" t="n">
-        <v>2845.929487029871</v>
+        <v>2973.109812355657</v>
       </c>
       <c r="AC24" t="n">
-        <v>2574.317971074862</v>
+        <v>2689.360384650262</v>
       </c>
       <c r="AD24" t="n">
-        <v>2079986.642665891</v>
+        <v>2172938.129725964</v>
       </c>
       <c r="AE24" t="n">
-        <v>2845929.487029871</v>
+        <v>2973109.812355657</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.235519417221355e-06</v>
+        <v>2.100301123523438e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.53055555555556</v>
       </c>
       <c r="AH24" t="n">
-        <v>2574317.971074862</v>
+        <v>2689360.384650262</v>
       </c>
     </row>
     <row r="25">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2073.610739541635</v>
+        <v>2166.562226601708</v>
       </c>
       <c r="AB25" t="n">
-        <v>2837.205695090271</v>
+        <v>2964.386020416057</v>
       </c>
       <c r="AC25" t="n">
-        <v>2566.426765594058</v>
+        <v>2681.469179169458</v>
       </c>
       <c r="AD25" t="n">
-        <v>2073610.739541635</v>
+        <v>2166562.226601708</v>
       </c>
       <c r="AE25" t="n">
-        <v>2837205.695090271</v>
+        <v>2964386.020416057</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>2.102300934162355e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.51388888888889</v>
       </c>
       <c r="AH25" t="n">
-        <v>2566426.765594058</v>
+        <v>2681469.179169458</v>
       </c>
     </row>
     <row r="26">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2069.262349343067</v>
+        <v>2162.213836403139</v>
       </c>
       <c r="AB26" t="n">
-        <v>2831.256035783153</v>
+        <v>2958.436361108939</v>
       </c>
       <c r="AC26" t="n">
-        <v>2561.044933420812</v>
+        <v>2676.087346996213</v>
       </c>
       <c r="AD26" t="n">
-        <v>2069262.349343067</v>
+        <v>2162213.836403139</v>
       </c>
       <c r="AE26" t="n">
-        <v>2831256.035783153</v>
+        <v>2958436.361108939</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>2.102300934162355e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.51527777777778</v>
       </c>
       <c r="AH26" t="n">
-        <v>2561044.933420812</v>
+        <v>2676087.346996213</v>
       </c>
     </row>
     <row r="27">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2075.37610317464</v>
+        <v>2168.327590234713</v>
       </c>
       <c r="AB27" t="n">
-        <v>2839.621143495295</v>
+        <v>2966.801468821081</v>
       </c>
       <c r="AC27" t="n">
-        <v>2568.611686993409</v>
+        <v>2683.65410056881</v>
       </c>
       <c r="AD27" t="n">
-        <v>2075376.10317464</v>
+        <v>2168327.590234713</v>
       </c>
       <c r="AE27" t="n">
-        <v>2839621.143495295</v>
+        <v>2966801.46882108</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>2.103550815811679e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.50416666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>2568611.686993409</v>
+        <v>2683654.10056881</v>
       </c>
     </row>
     <row r="28">
@@ -26137,28 +26137,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2084.625349958466</v>
+        <v>2177.576837018538</v>
       </c>
       <c r="AB28" t="n">
-        <v>2852.276370992895</v>
+        <v>2979.45669631868</v>
       </c>
       <c r="AC28" t="n">
-        <v>2580.059117340362</v>
+        <v>2695.101530915762</v>
       </c>
       <c r="AD28" t="n">
-        <v>2084625.349958466</v>
+        <v>2177576.837018538</v>
       </c>
       <c r="AE28" t="n">
-        <v>2852276.370992895</v>
+        <v>2979456.69631868</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>2.103550815811679e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.50555555555556</v>
       </c>
       <c r="AH28" t="n">
-        <v>2580059.117340362</v>
+        <v>2695101.530915762</v>
       </c>
     </row>
   </sheetData>
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4633.108003966765</v>
+        <v>4777.144858529505</v>
       </c>
       <c r="AB2" t="n">
-        <v>6339.222769327117</v>
+        <v>6536.300348197415</v>
       </c>
       <c r="AC2" t="n">
-        <v>5734.216245377334</v>
+        <v>5912.485016720363</v>
       </c>
       <c r="AD2" t="n">
-        <v>4633108.003966765</v>
+        <v>4777144.858529504</v>
       </c>
       <c r="AE2" t="n">
-        <v>6339222.769327117</v>
+        <v>6536300.348197415</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.695003887814104e-07</v>
+        <v>1.387591295500613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.71388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>5734216.245377334</v>
+        <v>5912485.016720363</v>
       </c>
     </row>
     <row r="3">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2603.000881694189</v>
+        <v>2708.605150812311</v>
       </c>
       <c r="AB3" t="n">
-        <v>3561.540642628354</v>
+        <v>3706.03306256732</v>
       </c>
       <c r="AC3" t="n">
-        <v>3221.632202349456</v>
+        <v>3352.334468525827</v>
       </c>
       <c r="AD3" t="n">
-        <v>2603000.881694189</v>
+        <v>2708605.150812312</v>
       </c>
       <c r="AE3" t="n">
-        <v>3561540.642628354</v>
+        <v>3706033.06256732</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06890078813775e-06</v>
+        <v>1.927481065633371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.67222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3221632.202349456</v>
+        <v>3352334.468525826</v>
       </c>
     </row>
     <row r="4">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2199.012157242597</v>
+        <v>2295.008279999566</v>
       </c>
       <c r="AB4" t="n">
-        <v>3008.785447108997</v>
+        <v>3140.13157731513</v>
       </c>
       <c r="AC4" t="n">
-        <v>2721.631186893698</v>
+        <v>2840.441826778404</v>
       </c>
       <c r="AD4" t="n">
-        <v>2199012.157242598</v>
+        <v>2295008.279999566</v>
       </c>
       <c r="AE4" t="n">
-        <v>3008785.447108997</v>
+        <v>3140131.57731513</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.173261394927207e-06</v>
+        <v>2.11566793556275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.83194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>2721631.186893698</v>
+        <v>2840441.826778404</v>
       </c>
     </row>
     <row r="5">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2023.391112030157</v>
+        <v>2109.779177934522</v>
       </c>
       <c r="AB5" t="n">
-        <v>2768.492985195464</v>
+        <v>2886.692948138305</v>
       </c>
       <c r="AC5" t="n">
-        <v>2504.271900292718</v>
+        <v>2611.191024666984</v>
       </c>
       <c r="AD5" t="n">
-        <v>2023391.112030157</v>
+        <v>2109779.177934522</v>
       </c>
       <c r="AE5" t="n">
-        <v>2768492.985195464</v>
+        <v>2886692.948138305</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227191647521149e-06</v>
+        <v>2.212916943041498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.00416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2504271.900292718</v>
+        <v>2611191.024666984</v>
       </c>
     </row>
     <row r="6">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1905.02282614324</v>
+        <v>1991.496143393626</v>
       </c>
       <c r="AB6" t="n">
-        <v>2606.536274404766</v>
+        <v>2724.852882000256</v>
       </c>
       <c r="AC6" t="n">
-        <v>2357.772110672212</v>
+        <v>2464.79674729719</v>
       </c>
       <c r="AD6" t="n">
-        <v>1905022.82614324</v>
+        <v>1991496.143393626</v>
       </c>
       <c r="AE6" t="n">
-        <v>2606536.274404766</v>
+        <v>2724852.882000256</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259963423433692e-06</v>
+        <v>2.27201221012298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2357772.110672212</v>
+        <v>2464796.747297191</v>
       </c>
     </row>
     <row r="7">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1828.520391557373</v>
+        <v>1914.823116607167</v>
       </c>
       <c r="AB7" t="n">
-        <v>2501.862268355168</v>
+        <v>2619.945464175811</v>
       </c>
       <c r="AC7" t="n">
-        <v>2263.088044849097</v>
+        <v>2369.901546191425</v>
       </c>
       <c r="AD7" t="n">
-        <v>1828520.391557373</v>
+        <v>1914823.116607167</v>
       </c>
       <c r="AE7" t="n">
-        <v>2501862.268355167</v>
+        <v>2619945.464175811</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.281599158987604e-06</v>
+        <v>2.311026561205899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.23888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2263088.044849097</v>
+        <v>2369901.546191425</v>
       </c>
     </row>
     <row r="8">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1764.897442284057</v>
+        <v>1841.76270268184</v>
       </c>
       <c r="AB8" t="n">
-        <v>2414.810542312992</v>
+        <v>2519.980982645199</v>
       </c>
       <c r="AC8" t="n">
-        <v>2184.344413362522</v>
+        <v>2279.477534477062</v>
       </c>
       <c r="AD8" t="n">
-        <v>1764897.442284057</v>
+        <v>1841762.70268184</v>
       </c>
       <c r="AE8" t="n">
-        <v>2414810.542312992</v>
+        <v>2519980.982645199</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.297666874362201e-06</v>
+        <v>2.340000454289539e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.02638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2184344.413362522</v>
+        <v>2279477.534477063</v>
       </c>
     </row>
     <row r="9">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1701.739515301454</v>
+        <v>1788.127491697268</v>
       </c>
       <c r="AB9" t="n">
-        <v>2328.395080284305</v>
+        <v>2446.594920757598</v>
       </c>
       <c r="AC9" t="n">
-        <v>2106.17632174499</v>
+        <v>2213.09533533803</v>
       </c>
       <c r="AD9" t="n">
-        <v>1701739.515301454</v>
+        <v>1788127.491697268</v>
       </c>
       <c r="AE9" t="n">
-        <v>2328395.080284305</v>
+        <v>2446594.920757598</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.309757432465857e-06</v>
+        <v>2.361802591659406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.87083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2106176.32174499</v>
+        <v>2213095.33533803</v>
       </c>
     </row>
     <row r="10">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1653.161977441304</v>
+        <v>1739.549953837118</v>
       </c>
       <c r="AB10" t="n">
-        <v>2261.929149894329</v>
+        <v>2380.128990367622</v>
       </c>
       <c r="AC10" t="n">
-        <v>2046.053806465914</v>
+        <v>2152.972820058954</v>
       </c>
       <c r="AD10" t="n">
-        <v>1653161.977441304</v>
+        <v>1739549.953837118</v>
       </c>
       <c r="AE10" t="n">
-        <v>2261929.149894329</v>
+        <v>2380128.990367622</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.318666264752762e-06</v>
+        <v>2.377867324458255e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.75555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>2046053.806465914</v>
+        <v>2152972.820058954</v>
       </c>
     </row>
     <row r="11">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1613.050966486741</v>
+        <v>1699.438942882555</v>
       </c>
       <c r="AB11" t="n">
-        <v>2207.047495133383</v>
+        <v>2325.247335606676</v>
       </c>
       <c r="AC11" t="n">
-        <v>1996.409979808467</v>
+        <v>2103.328993401507</v>
       </c>
       <c r="AD11" t="n">
-        <v>1613050.966486741</v>
+        <v>1699438.942882555</v>
       </c>
       <c r="AE11" t="n">
-        <v>2207047.495133383</v>
+        <v>2325247.335606676</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.325506975258778e-06</v>
+        <v>2.390202744285943e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1996409.979808467</v>
+        <v>2103328.993401506</v>
       </c>
     </row>
     <row r="12">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1611.678838925878</v>
+        <v>1698.066815321692</v>
       </c>
       <c r="AB12" t="n">
-        <v>2205.170089670614</v>
+        <v>2323.369930143908</v>
       </c>
       <c r="AC12" t="n">
-        <v>1994.71175128811</v>
+        <v>2101.63076488115</v>
       </c>
       <c r="AD12" t="n">
-        <v>1611678.838925878</v>
+        <v>1698066.815321692</v>
       </c>
       <c r="AE12" t="n">
-        <v>2205170.089670614</v>
+        <v>2323369.930143908</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>2.391923965657248e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.65694444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>1994711.751288109</v>
+        <v>2101630.76488115</v>
       </c>
     </row>
     <row r="13">
@@ -27600,28 +27600,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1618.905195996323</v>
+        <v>1705.293172392137</v>
       </c>
       <c r="AB13" t="n">
-        <v>2215.057510218771</v>
+        <v>2333.257350692063</v>
       </c>
       <c r="AC13" t="n">
-        <v>2003.655530296232</v>
+        <v>2110.574543889272</v>
       </c>
       <c r="AD13" t="n">
-        <v>1618905.195996323</v>
+        <v>1705293.172392137</v>
       </c>
       <c r="AE13" t="n">
-        <v>2215057.510218771</v>
+        <v>2333257.350692064</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>2.391923965657248e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.65833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2003655.530296232</v>
+        <v>2110574.543889272</v>
       </c>
     </row>
   </sheetData>
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3157.995697173587</v>
+        <v>3278.182722812207</v>
       </c>
       <c r="AB2" t="n">
-        <v>4320.90903381053</v>
+        <v>4485.354224566653</v>
       </c>
       <c r="AC2" t="n">
-        <v>3908.527540057407</v>
+        <v>4057.278312608036</v>
       </c>
       <c r="AD2" t="n">
-        <v>3157995.697173587</v>
+        <v>3278182.722812206</v>
       </c>
       <c r="AE2" t="n">
-        <v>4320909.03381053</v>
+        <v>4485354.224566653</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.241935586773098e-07</v>
+        <v>1.724249768732424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.90555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>3908527.540057407</v>
+        <v>4057278.312608036</v>
       </c>
     </row>
     <row r="3">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2022.929735986576</v>
+        <v>2115.276348780746</v>
       </c>
       <c r="AB3" t="n">
-        <v>2767.861710138162</v>
+        <v>2894.214419808171</v>
       </c>
       <c r="AC3" t="n">
-        <v>2503.700873240884</v>
+        <v>2617.994657637129</v>
       </c>
       <c r="AD3" t="n">
-        <v>2022929.735986576</v>
+        <v>2115276.348780746</v>
       </c>
       <c r="AE3" t="n">
-        <v>2767861.710138162</v>
+        <v>2894214.419808171</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184200676045913e-06</v>
+        <v>2.209339940355371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.43611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2503700.873240884</v>
+        <v>2617994.657637129</v>
       </c>
     </row>
     <row r="4">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1755.964426339137</v>
+        <v>1839.144659488402</v>
       </c>
       <c r="AB4" t="n">
-        <v>2402.587995800302</v>
+        <v>2516.398860448023</v>
       </c>
       <c r="AC4" t="n">
-        <v>2173.288369534552</v>
+        <v>2276.237284994846</v>
       </c>
       <c r="AD4" t="n">
-        <v>1755964.426339137</v>
+        <v>1839144.659488402</v>
       </c>
       <c r="AE4" t="n">
-        <v>2402587.995800302</v>
+        <v>2516398.860448023</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273189727688322e-06</v>
+        <v>2.375365066015997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.07777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2173288.369534552</v>
+        <v>2276237.284994846</v>
       </c>
     </row>
     <row r="5">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1614.018650012161</v>
+        <v>1697.113542306855</v>
       </c>
       <c r="AB5" t="n">
-        <v>2208.371522424046</v>
+        <v>2322.065619949569</v>
       </c>
       <c r="AC5" t="n">
-        <v>1997.607643792793</v>
+        <v>2100.450936221148</v>
       </c>
       <c r="AD5" t="n">
-        <v>1614018.650012161</v>
+        <v>1697113.542306855</v>
       </c>
       <c r="AE5" t="n">
-        <v>2208371.522424046</v>
+        <v>2322065.619949569</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.318595686999346e-06</v>
+        <v>2.460078072405218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.45555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1997607.643792793</v>
+        <v>2100450.936221148</v>
       </c>
     </row>
     <row r="6">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1520.346259146757</v>
+        <v>1594.360112651118</v>
       </c>
       <c r="AB6" t="n">
-        <v>2080.204824707775</v>
+        <v>2181.473844333208</v>
       </c>
       <c r="AC6" t="n">
-        <v>1881.672995823473</v>
+        <v>1973.277042347816</v>
       </c>
       <c r="AD6" t="n">
-        <v>1520346.259146757</v>
+        <v>1594360.112651118</v>
       </c>
       <c r="AE6" t="n">
-        <v>2080204.824707775</v>
+        <v>2181473.844333208</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346767267593777e-06</v>
+        <v>2.512637236953274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.08888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1881672.995823473</v>
+        <v>1973277.042347816</v>
       </c>
     </row>
     <row r="7">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1442.783830723467</v>
+        <v>1525.963974364182</v>
       </c>
       <c r="AB7" t="n">
-        <v>1974.080488326188</v>
+        <v>2087.89123050436</v>
       </c>
       <c r="AC7" t="n">
-        <v>1785.677017159703</v>
+        <v>1888.62582183877</v>
       </c>
       <c r="AD7" t="n">
-        <v>1442783.830723468</v>
+        <v>1525963.974364182</v>
       </c>
       <c r="AE7" t="n">
-        <v>1974080.488326188</v>
+        <v>2087891.230504361</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363338785590502e-06</v>
+        <v>2.543554392569778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.88194444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1785677.017159703</v>
+        <v>1888625.821838771</v>
       </c>
     </row>
     <row r="8">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1426.1611937878</v>
+        <v>1509.341337428514</v>
       </c>
       <c r="AB8" t="n">
-        <v>1951.336663131823</v>
+        <v>2065.147405309995</v>
       </c>
       <c r="AC8" t="n">
-        <v>1765.103830720728</v>
+        <v>1868.052635399796</v>
       </c>
       <c r="AD8" t="n">
-        <v>1426161.1937878</v>
+        <v>1509341.337428514</v>
       </c>
       <c r="AE8" t="n">
-        <v>1951336.663131823</v>
+        <v>2065147.405309995</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368807386529421e-06</v>
+        <v>2.553757053923225e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.81527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1765103.830720728</v>
+        <v>1868052.635399796</v>
       </c>
     </row>
     <row r="9">
@@ -28639,28 +28639,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1433.542713040616</v>
+        <v>1516.722856681331</v>
       </c>
       <c r="AB9" t="n">
-        <v>1961.436383423173</v>
+        <v>2075.247125601345</v>
       </c>
       <c r="AC9" t="n">
-        <v>1774.239647882519</v>
+        <v>1877.188452561586</v>
       </c>
       <c r="AD9" t="n">
-        <v>1433542.713040617</v>
+        <v>1516722.856681331</v>
       </c>
       <c r="AE9" t="n">
-        <v>1961436.383423173</v>
+        <v>2075247.125601345</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.36947024724929e-06</v>
+        <v>2.554993740147885e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1774239.647882519</v>
+        <v>1877188.452561586</v>
       </c>
     </row>
   </sheetData>
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2345.660236555843</v>
+        <v>2453.176767459184</v>
       </c>
       <c r="AB2" t="n">
-        <v>3209.435818882045</v>
+        <v>3356.544679758583</v>
       </c>
       <c r="AC2" t="n">
-        <v>2903.131768799285</v>
+        <v>3036.200766462343</v>
       </c>
       <c r="AD2" t="n">
-        <v>2345660.236555843</v>
+        <v>2453176.767459184</v>
       </c>
       <c r="AE2" t="n">
-        <v>3209435.818882045</v>
+        <v>3356544.679758583</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052719230049703e-06</v>
+        <v>2.024418118012583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.61527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2903131.768799284</v>
+        <v>3036200.766462343</v>
       </c>
     </row>
     <row r="3">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1624.914365809747</v>
+        <v>1714.497251420103</v>
       </c>
       <c r="AB3" t="n">
-        <v>2223.27952146336</v>
+        <v>2345.850777673435</v>
       </c>
       <c r="AC3" t="n">
-        <v>2011.092844327303</v>
+        <v>2121.966071874526</v>
       </c>
       <c r="AD3" t="n">
-        <v>1624914.365809747</v>
+        <v>1714497.251420103</v>
       </c>
       <c r="AE3" t="n">
-        <v>2223279.52146336</v>
+        <v>2345850.777673434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279171290446325e-06</v>
+        <v>2.45989382781467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.61388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2011092.844327303</v>
+        <v>2121966.071874526</v>
       </c>
     </row>
     <row r="4">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1420.052143912556</v>
+        <v>1500.75354773099</v>
       </c>
       <c r="AB4" t="n">
-        <v>1942.977991580254</v>
+        <v>2053.3972125793</v>
       </c>
       <c r="AC4" t="n">
-        <v>1757.542899050573</v>
+        <v>1857.423864571819</v>
       </c>
       <c r="AD4" t="n">
-        <v>1420052.143912556</v>
+        <v>1500753.54773099</v>
       </c>
       <c r="AE4" t="n">
-        <v>1942977.991580254</v>
+        <v>2053397.2125793</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356826690415795e-06</v>
+        <v>2.609228041698354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.54722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1757542.899050573</v>
+        <v>1857423.864571819</v>
       </c>
     </row>
     <row r="5">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1312.666788834591</v>
+        <v>1384.401459515084</v>
       </c>
       <c r="AB5" t="n">
-        <v>1796.048611255074</v>
+        <v>1894.199152390441</v>
       </c>
       <c r="AC5" t="n">
-        <v>1624.636252566947</v>
+        <v>1713.419443811504</v>
       </c>
       <c r="AD5" t="n">
-        <v>1312666.788834591</v>
+        <v>1384401.459515084</v>
       </c>
       <c r="AE5" t="n">
-        <v>1796048.611255074</v>
+        <v>1894199.15239044</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393683006074594e-06</v>
+        <v>2.680104103475378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1624636.252566947</v>
+        <v>1713419.443811504</v>
       </c>
     </row>
     <row r="6">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1299.366986548637</v>
+        <v>1371.10165722913</v>
       </c>
       <c r="AB6" t="n">
-        <v>1777.851235021566</v>
+        <v>1876.001776156932</v>
       </c>
       <c r="AC6" t="n">
-        <v>1608.175608380987</v>
+        <v>1696.958799625543</v>
       </c>
       <c r="AD6" t="n">
-        <v>1299366.986548637</v>
+        <v>1371101.65722913</v>
       </c>
       <c r="AE6" t="n">
-        <v>1777851.235021566</v>
+        <v>1876001.776156932</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.399511446690404e-06</v>
+        <v>2.691312410919187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.0125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1608175.608380987</v>
+        <v>1696958.799625543</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1218.889486632245</v>
+        <v>1302.739561932679</v>
       </c>
       <c r="AB2" t="n">
-        <v>1667.738369219237</v>
+        <v>1782.465741449537</v>
       </c>
       <c r="AC2" t="n">
-        <v>1508.571759946455</v>
+        <v>1612.349712791973</v>
       </c>
       <c r="AD2" t="n">
-        <v>1218889.486632245</v>
+        <v>1302739.561932679</v>
       </c>
       <c r="AE2" t="n">
-        <v>1667738.369219237</v>
+        <v>1782465.741449537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330071099844772e-06</v>
+        <v>2.743403747904023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1508571.759946455</v>
+        <v>1612349.712791973</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1031.545096849547</v>
+        <v>1115.39508264143</v>
       </c>
       <c r="AB3" t="n">
-        <v>1411.405510067391</v>
+        <v>1526.132759828142</v>
       </c>
       <c r="AC3" t="n">
-        <v>1276.702949106633</v>
+        <v>1380.480791170925</v>
       </c>
       <c r="AD3" t="n">
-        <v>1031545.096849547</v>
+        <v>1115395.08264143</v>
       </c>
       <c r="AE3" t="n">
-        <v>1411405.510067391</v>
+        <v>1526132.759828142</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429426251859736e-06</v>
+        <v>2.948333617023981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.87777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1276702.949106633</v>
+        <v>1380480.791170925</v>
       </c>
     </row>
     <row r="4">
@@ -54962,28 +54962,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.009155369983</v>
+        <v>1129.859141161866</v>
       </c>
       <c r="AB4" t="n">
-        <v>1431.195873044277</v>
+        <v>1545.923122805028</v>
       </c>
       <c r="AC4" t="n">
-        <v>1294.604547616955</v>
+        <v>1398.382389681246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1046009.155369983</v>
+        <v>1129859.141161866</v>
       </c>
       <c r="AE4" t="n">
-        <v>1431195.873044277</v>
+        <v>1545923.122805028</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429242260837487e-06</v>
+        <v>2.947954117266351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.88055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1294604.547616954</v>
+        <v>1398382.389681245</v>
       </c>
     </row>
   </sheetData>
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6630.392333164542</v>
+        <v>6798.695582457135</v>
       </c>
       <c r="AB2" t="n">
-        <v>9071.995302501506</v>
+        <v>9302.275233198972</v>
       </c>
       <c r="AC2" t="n">
-        <v>8206.176803455794</v>
+        <v>8414.479140767398</v>
       </c>
       <c r="AD2" t="n">
-        <v>6630392.333164542</v>
+        <v>6798695.582457135</v>
       </c>
       <c r="AE2" t="n">
-        <v>9071995.302501505</v>
+        <v>9302275.233198972</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.408674457762533e-07</v>
+        <v>1.125978821433605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.34999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>8206176.803455793</v>
+        <v>8414479.140767399</v>
       </c>
     </row>
     <row r="3">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3216.984099872704</v>
+        <v>3335.73612980581</v>
       </c>
       <c r="AB3" t="n">
-        <v>4401.619568768126</v>
+        <v>4564.101335092423</v>
       </c>
       <c r="AC3" t="n">
-        <v>3981.535174836595</v>
+        <v>4128.509909427486</v>
       </c>
       <c r="AD3" t="n">
-        <v>3216984.099872704</v>
+        <v>3335736.12980581</v>
       </c>
       <c r="AE3" t="n">
-        <v>4401619.568768126</v>
+        <v>4564101.335092423</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.715335060339168e-07</v>
+        <v>1.706946045265734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.99583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3981535.174836595</v>
+        <v>4128509.909427486</v>
       </c>
     </row>
     <row r="4">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2643.992228598021</v>
+        <v>2743.094488299895</v>
       </c>
       <c r="AB4" t="n">
-        <v>3617.626811872774</v>
+        <v>3753.222895680018</v>
       </c>
       <c r="AC4" t="n">
-        <v>3272.36558631862</v>
+        <v>3395.020570197593</v>
       </c>
       <c r="AD4" t="n">
-        <v>2643992.228598021</v>
+        <v>2743094.488299895</v>
       </c>
       <c r="AE4" t="n">
-        <v>3617626.811872774</v>
+        <v>3753222.895680018</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089705462421951e-06</v>
+        <v>1.914569511018677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3272365.58631862</v>
+        <v>3395020.570197593</v>
       </c>
     </row>
     <row r="5">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2398.712512840793</v>
+        <v>2497.729431688096</v>
       </c>
       <c r="AB5" t="n">
-        <v>3282.024283796364</v>
+        <v>3417.50360048141</v>
       </c>
       <c r="AC5" t="n">
-        <v>2968.792492500728</v>
+        <v>3091.341853347763</v>
       </c>
       <c r="AD5" t="n">
-        <v>2398712.512840793</v>
+        <v>2497729.431688096</v>
       </c>
       <c r="AE5" t="n">
-        <v>3282024.283796364</v>
+        <v>3417503.60048141</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150945616904292e-06</v>
+        <v>2.02216604665627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.56666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2968792.492500728</v>
+        <v>3091341.853347763</v>
       </c>
     </row>
     <row r="6">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2255.629817115439</v>
+        <v>2354.56139510817</v>
       </c>
       <c r="AB6" t="n">
-        <v>3086.252227141891</v>
+        <v>3221.614776704739</v>
       </c>
       <c r="AC6" t="n">
-        <v>2791.704646165558</v>
+        <v>2914.148383980654</v>
       </c>
       <c r="AD6" t="n">
-        <v>2255629.817115439</v>
+        <v>2354561.395108169</v>
       </c>
       <c r="AE6" t="n">
-        <v>3086252.227141891</v>
+        <v>3221614.776704739</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>2.086507693595334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2791704.646165558</v>
+        <v>2914148.383980654</v>
       </c>
     </row>
     <row r="7">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2163.786299752117</v>
+        <v>2252.978333483806</v>
       </c>
       <c r="AB7" t="n">
-        <v>2960.587874835197</v>
+        <v>3082.624350261889</v>
       </c>
       <c r="AC7" t="n">
-        <v>2678.033523272105</v>
+        <v>2788.423008763227</v>
       </c>
       <c r="AD7" t="n">
-        <v>2163786.299752117</v>
+        <v>2252978.333483806</v>
       </c>
       <c r="AE7" t="n">
-        <v>2960587.874835196</v>
+        <v>3082624.350261889</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.212955120061034e-06</v>
+        <v>2.131114297565693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.61944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>2678033.523272105</v>
+        <v>2788423.008763227</v>
       </c>
     </row>
     <row r="8">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2092.295771407632</v>
+        <v>2181.317212938727</v>
       </c>
       <c r="AB8" t="n">
-        <v>2862.771380014756</v>
+        <v>2984.574443666421</v>
       </c>
       <c r="AC8" t="n">
-        <v>2589.552497431014</v>
+        <v>2699.730847639438</v>
       </c>
       <c r="AD8" t="n">
-        <v>2092295.771407632</v>
+        <v>2181317.212938727</v>
       </c>
       <c r="AE8" t="n">
-        <v>2862771.380014756</v>
+        <v>2984574.443666421</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.231265618511784e-06</v>
+        <v>2.163285121035224e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.35694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>2589552.497431014</v>
+        <v>2699730.847639438</v>
       </c>
     </row>
     <row r="9">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2036.413458597417</v>
+        <v>2115.695355867467</v>
       </c>
       <c r="AB9" t="n">
-        <v>2786.310734274175</v>
+        <v>2894.787723789512</v>
       </c>
       <c r="AC9" t="n">
-        <v>2520.389148406724</v>
+        <v>2618.513246291127</v>
       </c>
       <c r="AD9" t="n">
-        <v>2036413.458597417</v>
+        <v>2115695.355867467</v>
       </c>
       <c r="AE9" t="n">
-        <v>2786310.734274175</v>
+        <v>2894787.723789512</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.245421634120767e-06</v>
+        <v>2.188156682036879e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.15972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2520389.148406724</v>
+        <v>2618513.246291128</v>
       </c>
     </row>
     <row r="10">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1988.895346755891</v>
+        <v>2068.177244025941</v>
       </c>
       <c r="AB10" t="n">
-        <v>2721.294357301456</v>
+        <v>2829.771346816794</v>
       </c>
       <c r="AC10" t="n">
-        <v>2461.577843201224</v>
+        <v>2559.701941085627</v>
       </c>
       <c r="AD10" t="n">
-        <v>1988895.346755891</v>
+        <v>2068177.244025941</v>
       </c>
       <c r="AE10" t="n">
-        <v>2721294.357301456</v>
+        <v>2829771.346816794</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.256038645827504e-06</v>
+        <v>2.20681035278812e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>2461577.843201224</v>
+        <v>2559701.941085627</v>
       </c>
     </row>
     <row r="11">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1937.461943958499</v>
+        <v>2026.568636835613</v>
       </c>
       <c r="AB11" t="n">
-        <v>2650.920906512477</v>
+        <v>2772.840614816791</v>
       </c>
       <c r="AC11" t="n">
-        <v>2397.920735785785</v>
+        <v>2508.204598244921</v>
       </c>
       <c r="AD11" t="n">
-        <v>1937461.943958499</v>
+        <v>2026568.636835613</v>
       </c>
       <c r="AE11" t="n">
-        <v>2650920.906512477</v>
+        <v>2772840.614816791</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.264501481245918e-06</v>
+        <v>2.221679220778239e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="AH11" t="n">
-        <v>2397920.735785786</v>
+        <v>2508204.598244921</v>
       </c>
     </row>
     <row r="12">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1894.010316540557</v>
+        <v>1983.117009417671</v>
       </c>
       <c r="AB12" t="n">
-        <v>2591.468472928739</v>
+        <v>2713.388181233054</v>
       </c>
       <c r="AC12" t="n">
-        <v>2344.142359021264</v>
+        <v>2454.426221480401</v>
       </c>
       <c r="AD12" t="n">
-        <v>1894010.316540557</v>
+        <v>1983117.009417671</v>
       </c>
       <c r="AE12" t="n">
-        <v>2591468.472928739</v>
+        <v>2713388.181233054</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.272502707459691e-06</v>
+        <v>2.235737059605261e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.79444444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>2344142.359021265</v>
+        <v>2454426.221480401</v>
       </c>
     </row>
     <row r="13">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1855.395040856195</v>
+        <v>1944.501733733309</v>
       </c>
       <c r="AB13" t="n">
-        <v>2538.633349151664</v>
+        <v>2660.553057455979</v>
       </c>
       <c r="AC13" t="n">
-        <v>2296.349745302912</v>
+        <v>2406.633607762048</v>
       </c>
       <c r="AD13" t="n">
-        <v>1855395.040856194</v>
+        <v>1944501.733733309</v>
       </c>
       <c r="AE13" t="n">
-        <v>2538633.349151664</v>
+        <v>2660553.057455979</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.279119106059542e-06</v>
+        <v>2.247361810942992e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.70694444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>2296349.745302912</v>
+        <v>2406633.607762048</v>
       </c>
     </row>
     <row r="14">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1821.976316742546</v>
+        <v>1911.083009619661</v>
       </c>
       <c r="AB14" t="n">
-        <v>2492.908376489315</v>
+        <v>2614.82808479363</v>
       </c>
       <c r="AC14" t="n">
-        <v>2254.988699856056</v>
+        <v>2365.272562315191</v>
       </c>
       <c r="AD14" t="n">
-        <v>1821976.316742546</v>
+        <v>1911083.009619661</v>
       </c>
       <c r="AE14" t="n">
-        <v>2492908.376489315</v>
+        <v>2614828.08479363</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.283427458636189e-06</v>
+        <v>2.254931416465234e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.65</v>
       </c>
       <c r="AH14" t="n">
-        <v>2254988.699856055</v>
+        <v>2365272.562315192</v>
       </c>
     </row>
     <row r="15">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1789.948065288529</v>
+        <v>1879.054758165644</v>
       </c>
       <c r="AB15" t="n">
-        <v>2449.085909863199</v>
+        <v>2571.005618167513</v>
       </c>
       <c r="AC15" t="n">
-        <v>2215.348587939518</v>
+        <v>2325.632450398654</v>
       </c>
       <c r="AD15" t="n">
-        <v>1789948.065288529</v>
+        <v>1879054.758165644</v>
       </c>
       <c r="AE15" t="n">
-        <v>2449085.909863199</v>
+        <v>2571005.618167513</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.287428071743076e-06</v>
+        <v>2.261960335878745e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>2215348.587939518</v>
+        <v>2325632.450398654</v>
       </c>
     </row>
     <row r="16">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1783.81433071847</v>
+        <v>1872.921023595585</v>
       </c>
       <c r="AB16" t="n">
-        <v>2440.693463623174</v>
+        <v>2562.613171927489</v>
       </c>
       <c r="AC16" t="n">
-        <v>2207.757104989768</v>
+        <v>2318.040967448904</v>
       </c>
       <c r="AD16" t="n">
-        <v>1783814.33071847</v>
+        <v>1872921.023595585</v>
       </c>
       <c r="AE16" t="n">
-        <v>2440693.463623174</v>
+        <v>2562613.171927488</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288351290152358e-06</v>
+        <v>2.26358239420494e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.5875</v>
       </c>
       <c r="AH16" t="n">
-        <v>2207757.104989768</v>
+        <v>2318040.967448904</v>
       </c>
     </row>
     <row r="17">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1788.034928676234</v>
+        <v>1877.141621553349</v>
       </c>
       <c r="AB17" t="n">
-        <v>2446.468271948626</v>
+        <v>2568.387980252941</v>
       </c>
       <c r="AC17" t="n">
-        <v>2212.980773713634</v>
+        <v>2323.264636172771</v>
       </c>
       <c r="AD17" t="n">
-        <v>1788034.928676234</v>
+        <v>1877141.621553349</v>
       </c>
       <c r="AE17" t="n">
-        <v>2446468.271948626</v>
+        <v>2568387.980252941</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.289120638826759e-06</v>
+        <v>2.264934109476769e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.57777777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>2212980.773713634</v>
+        <v>2323264.636172771</v>
       </c>
     </row>
     <row r="18">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1796.442977260996</v>
+        <v>1885.549670138111</v>
       </c>
       <c r="AB18" t="n">
-        <v>2457.972534959223</v>
+        <v>2579.892243263537</v>
       </c>
       <c r="AC18" t="n">
-        <v>2223.387086008833</v>
+        <v>2333.67094846797</v>
       </c>
       <c r="AD18" t="n">
-        <v>1796442.977260996</v>
+        <v>1885549.670138111</v>
       </c>
       <c r="AE18" t="n">
-        <v>2457972.534959223</v>
+        <v>2579892.243263537</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.289428378296519e-06</v>
+        <v>2.265474795585501e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.575</v>
       </c>
       <c r="AH18" t="n">
-        <v>2223387.086008833</v>
+        <v>2333670.948467969</v>
       </c>
     </row>
   </sheetData>
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10743.63272964278</v>
+        <v>10959.0487718635</v>
       </c>
       <c r="AB2" t="n">
-        <v>14699.9122763226</v>
+        <v>14994.65400877408</v>
       </c>
       <c r="AC2" t="n">
-        <v>13296.97328012627</v>
+        <v>13563.58527530519</v>
       </c>
       <c r="AD2" t="n">
-        <v>10743632.72964278</v>
+        <v>10959048.77186351</v>
       </c>
       <c r="AE2" t="n">
-        <v>14699912.2763226</v>
+        <v>14994654.00877408</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.955309491125802e-07</v>
+        <v>8.473026998264877e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>13296973.28012627</v>
+        <v>13563585.27530519</v>
       </c>
     </row>
     <row r="3">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4137.811042142218</v>
+        <v>4270.993148474477</v>
       </c>
       <c r="AB3" t="n">
-        <v>5661.535615198941</v>
+        <v>5843.761248662602</v>
       </c>
       <c r="AC3" t="n">
-        <v>5121.206602099281</v>
+        <v>5286.040876860447</v>
       </c>
       <c r="AD3" t="n">
-        <v>4137811.042142218</v>
+        <v>4270993.148474477</v>
       </c>
       <c r="AE3" t="n">
-        <v>5661535.615198941</v>
+        <v>5843761.248662602</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.602844305060414e-07</v>
+        <v>1.470990504007565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5121206.602099281</v>
+        <v>5286040.876860446</v>
       </c>
     </row>
     <row r="4">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3262.776447167582</v>
+        <v>3375.528080809582</v>
       </c>
       <c r="AB4" t="n">
-        <v>4464.274678552765</v>
+        <v>4618.54643795277</v>
       </c>
       <c r="AC4" t="n">
-        <v>4038.210568880385</v>
+        <v>4177.75884808502</v>
       </c>
       <c r="AD4" t="n">
-        <v>3262776.447167582</v>
+        <v>3375528.080809582</v>
       </c>
       <c r="AE4" t="n">
-        <v>4464274.678552765</v>
+        <v>4618546.43795277</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.928411835002505e-07</v>
+        <v>1.697647779185566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.74027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>4038210.568880385</v>
+        <v>4177758.84808502</v>
       </c>
     </row>
     <row r="5">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2914.991713330364</v>
+        <v>3017.400188853928</v>
       </c>
       <c r="AB5" t="n">
-        <v>3988.420262537067</v>
+        <v>4128.540056691494</v>
       </c>
       <c r="AC5" t="n">
-        <v>3607.771030463374</v>
+        <v>3734.517988123064</v>
       </c>
       <c r="AD5" t="n">
-        <v>2914991.713330364</v>
+        <v>3017400.188853928</v>
       </c>
       <c r="AE5" t="n">
-        <v>3988420.262537067</v>
+        <v>4128540.056691494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.062826404320459e-06</v>
+        <v>1.817314707467464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3607771.030463374</v>
+        <v>3734517.988123064</v>
       </c>
     </row>
     <row r="6">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2718.582985317947</v>
+        <v>2821.076712187532</v>
       </c>
       <c r="AB6" t="n">
-        <v>3719.685175928924</v>
+        <v>3859.921614736</v>
       </c>
       <c r="AC6" t="n">
-        <v>3364.68364334906</v>
+        <v>3491.536113259462</v>
       </c>
       <c r="AD6" t="n">
-        <v>2718582.985317947</v>
+        <v>2821076.712187532</v>
       </c>
       <c r="AE6" t="n">
-        <v>3719685.175928924</v>
+        <v>3859921.614736</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106122346014317e-06</v>
+        <v>1.891345942760502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.61666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3364683.64334906</v>
+        <v>3491536.113259462</v>
       </c>
     </row>
     <row r="7">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2597.032881467257</v>
+        <v>2689.268791072976</v>
       </c>
       <c r="AB7" t="n">
-        <v>3553.374961428278</v>
+        <v>3679.576202111974</v>
       </c>
       <c r="AC7" t="n">
-        <v>3214.24584230251</v>
+        <v>3328.402613699903</v>
       </c>
       <c r="AD7" t="n">
-        <v>2597032.881467257</v>
+        <v>2689268.791072976</v>
       </c>
       <c r="AE7" t="n">
-        <v>3553374.961428278</v>
+        <v>3679576.202111974</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136073648145e-06</v>
+        <v>1.942559331559111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.12777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3214245.84230251</v>
+        <v>3328402.613699903</v>
       </c>
     </row>
     <row r="8">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2501.460170489639</v>
+        <v>2593.781331441379</v>
       </c>
       <c r="AB8" t="n">
-        <v>3422.608161898261</v>
+        <v>3548.926047234608</v>
       </c>
       <c r="AC8" t="n">
-        <v>3095.959242587287</v>
+        <v>3210.221526235393</v>
       </c>
       <c r="AD8" t="n">
-        <v>2501460.170489639</v>
+        <v>2593781.331441379</v>
       </c>
       <c r="AE8" t="n">
-        <v>3422608.161898261</v>
+        <v>3548926.047234608</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157128523900232e-06</v>
+        <v>1.978560822694766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.79861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>3095959.242587287</v>
+        <v>3210221.526235393</v>
       </c>
     </row>
     <row r="9">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2436.07186456723</v>
+        <v>2528.39302551897</v>
       </c>
       <c r="AB9" t="n">
-        <v>3333.140997006753</v>
+        <v>3459.4588823431</v>
       </c>
       <c r="AC9" t="n">
-        <v>3015.030698345073</v>
+        <v>3129.29298199318</v>
       </c>
       <c r="AD9" t="n">
-        <v>2436071.86456723</v>
+        <v>2528393.02551897</v>
       </c>
       <c r="AE9" t="n">
-        <v>3333140.997006753</v>
+        <v>3459458.882343099</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.173290365148967e-06</v>
+        <v>2.006195770115798e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.55138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>3015030.698345073</v>
+        <v>3129292.98199318</v>
       </c>
     </row>
     <row r="10">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2381.976161467673</v>
+        <v>2474.126730218821</v>
       </c>
       <c r="AB10" t="n">
-        <v>3259.124869491947</v>
+        <v>3385.209343053446</v>
       </c>
       <c r="AC10" t="n">
-        <v>2948.078566157995</v>
+        <v>3062.129714523451</v>
       </c>
       <c r="AD10" t="n">
-        <v>2381976.161467673</v>
+        <v>2474126.730218821</v>
       </c>
       <c r="AE10" t="n">
-        <v>3259124.869491947</v>
+        <v>3385209.343053447</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.185448814528749e-06</v>
+        <v>2.026985363588501e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.37222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2948078.566157995</v>
+        <v>3062129.714523451</v>
       </c>
     </row>
     <row r="11">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2335.124019233689</v>
+        <v>2427.274587984837</v>
       </c>
       <c r="AB11" t="n">
-        <v>3195.019701516771</v>
+        <v>3321.10417507827</v>
       </c>
       <c r="AC11" t="n">
-        <v>2890.091505442203</v>
+        <v>3004.142653807659</v>
       </c>
       <c r="AD11" t="n">
-        <v>2335124.019233689</v>
+        <v>2427274.587984837</v>
       </c>
       <c r="AE11" t="n">
-        <v>3195019.701516771</v>
+        <v>3321104.17507827</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.195827978633441e-06</v>
+        <v>2.044732577528613e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.22083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2890091.505442203</v>
+        <v>3004142.653807659</v>
       </c>
     </row>
     <row r="12">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2295.465287481469</v>
+        <v>2377.528631169345</v>
       </c>
       <c r="AB12" t="n">
-        <v>3140.756875113617</v>
+        <v>3253.039562326584</v>
       </c>
       <c r="AC12" t="n">
-        <v>2841.007447032614</v>
+        <v>2942.574032167713</v>
       </c>
       <c r="AD12" t="n">
-        <v>2295465.287481469</v>
+        <v>2377528.631169345</v>
       </c>
       <c r="AE12" t="n">
-        <v>3140756.875113617</v>
+        <v>3253039.562326584</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.204872678781815e-06</v>
+        <v>2.060198006819282e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.09305555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>2841007.447032614</v>
+        <v>2942574.032167713</v>
       </c>
     </row>
     <row r="13">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2251.55437306243</v>
+        <v>2343.790193159599</v>
       </c>
       <c r="AB13" t="n">
-        <v>3080.676024792663</v>
+        <v>3206.877143006813</v>
       </c>
       <c r="AC13" t="n">
-        <v>2786.660628742291</v>
+        <v>2900.817289358459</v>
       </c>
       <c r="AD13" t="n">
-        <v>2251554.37306243</v>
+        <v>2343790.193159599</v>
       </c>
       <c r="AE13" t="n">
-        <v>3080676.024792663</v>
+        <v>3206877.143006813</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211989819882176e-06</v>
+        <v>2.072367524949644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.99166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2786660.628742292</v>
+        <v>2900817.289358459</v>
       </c>
     </row>
     <row r="14">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2221.483679063675</v>
+        <v>2313.719499160844</v>
       </c>
       <c r="AB14" t="n">
-        <v>3039.531974638173</v>
+        <v>3165.733092852322</v>
       </c>
       <c r="AC14" t="n">
-        <v>2749.443308988511</v>
+        <v>2863.599969604678</v>
       </c>
       <c r="AD14" t="n">
-        <v>2221483.679063675</v>
+        <v>2313719.499160844</v>
       </c>
       <c r="AE14" t="n">
-        <v>3039531.974638173</v>
+        <v>3165733.092852322</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.217179401934521e-06</v>
+        <v>2.0812411319197e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.91805555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>2749443.308988511</v>
+        <v>2863599.969604678</v>
       </c>
     </row>
     <row r="15">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2189.880446629305</v>
+        <v>2282.116266726474</v>
       </c>
       <c r="AB15" t="n">
-        <v>2996.291037785251</v>
+        <v>3122.4921559994</v>
       </c>
       <c r="AC15" t="n">
-        <v>2710.329226459797</v>
+        <v>2824.485887075964</v>
       </c>
       <c r="AD15" t="n">
-        <v>2189880.446629305</v>
+        <v>2282116.266726474</v>
       </c>
       <c r="AE15" t="n">
-        <v>2996291.037785251</v>
+        <v>3122492.1559994</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22281380530564e-06</v>
+        <v>2.090875333772904e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>2710329.226459797</v>
+        <v>2824485.887075964</v>
       </c>
     </row>
     <row r="16">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2162.147894864964</v>
+        <v>2254.383714962135</v>
       </c>
       <c r="AB16" t="n">
-        <v>2958.346136987272</v>
+        <v>3084.547255201594</v>
       </c>
       <c r="AC16" t="n">
-        <v>2676.005733738087</v>
+        <v>2790.1623943543</v>
       </c>
       <c r="AD16" t="n">
-        <v>2162147.894864964</v>
+        <v>2254383.714962135</v>
       </c>
       <c r="AE16" t="n">
-        <v>2958346.136987272</v>
+        <v>3084547.255201594</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.227410292266289e-06</v>
+        <v>2.098734814232097e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>2676005.733738087</v>
+        <v>2790162.3943543</v>
       </c>
     </row>
     <row r="17">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2134.792265113303</v>
+        <v>2227.028085210474</v>
       </c>
       <c r="AB17" t="n">
-        <v>2920.916957515839</v>
+        <v>3047.118075730159</v>
       </c>
       <c r="AC17" t="n">
-        <v>2642.148742623225</v>
+        <v>2756.305403239437</v>
       </c>
       <c r="AD17" t="n">
-        <v>2134792.265113303</v>
+        <v>2227028.085210474</v>
       </c>
       <c r="AE17" t="n">
-        <v>2920916.957515839</v>
+        <v>3047118.075730159</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.231413684135242e-06</v>
+        <v>2.105580168180425e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.72361111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2642148.742623225</v>
+        <v>2756305.403239437</v>
       </c>
     </row>
     <row r="18">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2110.271915976807</v>
+        <v>2202.507736073978</v>
       </c>
       <c r="AB18" t="n">
-        <v>2887.367134065827</v>
+        <v>3013.568252280146</v>
       </c>
       <c r="AC18" t="n">
-        <v>2611.800867235809</v>
+        <v>2725.957527852021</v>
       </c>
       <c r="AD18" t="n">
-        <v>2110271.915976807</v>
+        <v>2202507.736073978</v>
       </c>
       <c r="AE18" t="n">
-        <v>2887367.134065827</v>
+        <v>3013568.252280146</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.23452743336665e-06</v>
+        <v>2.110904332362459e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.68194444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>2611800.867235809</v>
+        <v>2725957.527852021</v>
       </c>
     </row>
     <row r="19">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2084.476852866557</v>
+        <v>2176.712672963725</v>
       </c>
       <c r="AB19" t="n">
-        <v>2852.073190720516</v>
+        <v>2978.274308934658</v>
       </c>
       <c r="AC19" t="n">
-        <v>2579.875328308014</v>
+        <v>2694.031988924179</v>
       </c>
       <c r="AD19" t="n">
-        <v>2084476.852866557</v>
+        <v>2176712.672963725</v>
       </c>
       <c r="AE19" t="n">
-        <v>2852073.190720516</v>
+        <v>2978274.308934658</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.238382551462678e-06</v>
+        <v>2.117496154683072e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.62916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2579875.328308014</v>
+        <v>2694031.988924179</v>
       </c>
     </row>
     <row r="20">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2061.848619588619</v>
+        <v>2154.084439685788</v>
       </c>
       <c r="AB20" t="n">
-        <v>2821.112243662445</v>
+        <v>2947.313361876587</v>
       </c>
       <c r="AC20" t="n">
-        <v>2551.869250583202</v>
+        <v>2666.025911199369</v>
       </c>
       <c r="AD20" t="n">
-        <v>2061848.61958862</v>
+        <v>2154084.439685788</v>
       </c>
       <c r="AE20" t="n">
-        <v>2821112.243662445</v>
+        <v>2947313.361876587</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.240754931829465e-06</v>
+        <v>2.121552660726526e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>2551869.250583202</v>
+        <v>2666025.911199369</v>
       </c>
     </row>
     <row r="21">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2040.052290673393</v>
+        <v>2132.288110770562</v>
       </c>
       <c r="AB21" t="n">
-        <v>2791.289544854466</v>
+        <v>2917.490663068608</v>
       </c>
       <c r="AC21" t="n">
-        <v>2524.892788293037</v>
+        <v>2639.049448909203</v>
       </c>
       <c r="AD21" t="n">
-        <v>2040052.290673393</v>
+        <v>2132288.110770562</v>
       </c>
       <c r="AE21" t="n">
-        <v>2791289.544854466</v>
+        <v>2917490.663068608</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.243127312196252e-06</v>
+        <v>2.12560916676998e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.56527777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>2524892.788293037</v>
+        <v>2639049.448909203</v>
       </c>
     </row>
     <row r="22">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2022.571324494687</v>
+        <v>2114.807144591855</v>
       </c>
       <c r="AB22" t="n">
-        <v>2767.371315722961</v>
+        <v>2893.572433937103</v>
       </c>
       <c r="AC22" t="n">
-        <v>2503.257281380397</v>
+        <v>2617.413941996563</v>
       </c>
       <c r="AD22" t="n">
-        <v>2022571.324494687</v>
+        <v>2114807.144591855</v>
       </c>
       <c r="AE22" t="n">
-        <v>2767371.315722961</v>
+        <v>2893572.433937103</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.244610049925493e-06</v>
+        <v>2.128144483047139e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.54583333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2503257.281380397</v>
+        <v>2617413.941996563</v>
       </c>
     </row>
     <row r="23">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2012.592254554717</v>
+        <v>2104.828074651885</v>
       </c>
       <c r="AB23" t="n">
-        <v>2753.7175119856</v>
+        <v>2879.918630199742</v>
       </c>
       <c r="AC23" t="n">
-        <v>2490.906577508495</v>
+        <v>2605.063238124661</v>
       </c>
       <c r="AD23" t="n">
-        <v>2012592.254554717</v>
+        <v>2104828.074651885</v>
       </c>
       <c r="AE23" t="n">
-        <v>2753717.5119856</v>
+        <v>2879918.630199742</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.246389335200583e-06</v>
+        <v>2.13118686257973e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.52222222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>2490906.577508495</v>
+        <v>2605063.238124661</v>
       </c>
     </row>
     <row r="24">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2012.860202323619</v>
+        <v>2105.096022420787</v>
       </c>
       <c r="AB24" t="n">
-        <v>2754.084129944033</v>
+        <v>2880.285248158174</v>
       </c>
       <c r="AC24" t="n">
-        <v>2491.238205963527</v>
+        <v>2605.394866579693</v>
       </c>
       <c r="AD24" t="n">
-        <v>2012860.202323619</v>
+        <v>2105096.022420787</v>
       </c>
       <c r="AE24" t="n">
-        <v>2754084.129944033</v>
+        <v>2880285.248158175</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.246241061427659e-06</v>
+        <v>2.130933330952014e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.52361111111111</v>
       </c>
       <c r="AH24" t="n">
-        <v>2491238.205963527</v>
+        <v>2605394.866579693</v>
       </c>
     </row>
     <row r="25">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2015.909701129074</v>
+        <v>2108.145521226243</v>
       </c>
       <c r="AB25" t="n">
-        <v>2758.25658874405</v>
+        <v>2884.457706958191</v>
       </c>
       <c r="AC25" t="n">
-        <v>2495.012451151753</v>
+        <v>2609.169111767919</v>
       </c>
       <c r="AD25" t="n">
-        <v>2015909.701129074</v>
+        <v>2108145.521226243</v>
       </c>
       <c r="AE25" t="n">
-        <v>2758256.588744049</v>
+        <v>2884457.706958191</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>2.132454520718309e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.5125</v>
       </c>
       <c r="AH25" t="n">
-        <v>2495012.451151753</v>
+        <v>2609169.111767919</v>
       </c>
     </row>
     <row r="26">
@@ -59796,28 +59796,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2024.92636200045</v>
+        <v>2117.162182097618</v>
       </c>
       <c r="AB26" t="n">
-        <v>2770.593581935268</v>
+        <v>2896.79470014941</v>
       </c>
       <c r="AC26" t="n">
-        <v>2506.17201902788</v>
+        <v>2620.328679644046</v>
       </c>
       <c r="AD26" t="n">
-        <v>2024926.36200045</v>
+        <v>2117162.182097618</v>
       </c>
       <c r="AE26" t="n">
-        <v>2770593.581935268</v>
+        <v>2896794.70014941</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>2.132454520718309e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.5125</v>
       </c>
       <c r="AH26" t="n">
-        <v>2506172.01902788</v>
+        <v>2620328.679644046</v>
       </c>
     </row>
   </sheetData>
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.2373591172001</v>
+        <v>983.5313029301011</v>
       </c>
       <c r="AB2" t="n">
-        <v>1234.480958647219</v>
+        <v>1345.710919007714</v>
       </c>
       <c r="AC2" t="n">
-        <v>1116.663828558835</v>
+        <v>1217.278157614754</v>
       </c>
       <c r="AD2" t="n">
-        <v>902237.3591172</v>
+        <v>983531.3029301011</v>
       </c>
       <c r="AE2" t="n">
-        <v>1234480.958647219</v>
+        <v>1345710.919007713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404536382226609e-06</v>
+        <v>3.010568383171993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.83888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1116663.828558835</v>
+        <v>1217278.157614754</v>
       </c>
     </row>
     <row r="3">
@@ -60199,28 +60199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.3246980448492</v>
+        <v>1000.61864185775</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.860609608219</v>
+        <v>1369.090569968713</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.812158445663</v>
+        <v>1238.426487501582</v>
       </c>
       <c r="AD3" t="n">
-        <v>919324.6980448492</v>
+        <v>1000618.64185775</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257860.609608219</v>
+        <v>1369090.569968713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.404345859114533e-06</v>
+        <v>3.010160004389686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137812.158445663</v>
+        <v>1238426.487501582</v>
       </c>
     </row>
   </sheetData>
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3613.930069646622</v>
+        <v>3735.761989976634</v>
       </c>
       <c r="AB2" t="n">
-        <v>4944.738556633082</v>
+        <v>5111.434364873601</v>
       </c>
       <c r="AC2" t="n">
-        <v>4472.819648771985</v>
+        <v>4623.60624303306</v>
       </c>
       <c r="AD2" t="n">
-        <v>3613930.069646622</v>
+        <v>3735761.989976634</v>
       </c>
       <c r="AE2" t="n">
-        <v>4944738.556633082</v>
+        <v>5111434.364873601</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.689179413398696e-07</v>
+        <v>1.600922685460188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4472819.648771985</v>
+        <v>4623606.24303306</v>
       </c>
     </row>
     <row r="3">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2212.291636408612</v>
+        <v>2315.281638425342</v>
       </c>
       <c r="AB3" t="n">
-        <v>3026.955016353212</v>
+        <v>3167.870480710729</v>
       </c>
       <c r="AC3" t="n">
-        <v>2738.066677950396</v>
+        <v>2865.533368165721</v>
       </c>
       <c r="AD3" t="n">
-        <v>2212291.636408612</v>
+        <v>2315281.638425342</v>
       </c>
       <c r="AE3" t="n">
-        <v>3026955.016353212</v>
+        <v>3167870.480710729</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142934912880614e-06</v>
+        <v>2.10578046899753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.84444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2738066.677950396</v>
+        <v>2865533.368165721</v>
       </c>
     </row>
     <row r="4">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1906.713091368877</v>
+        <v>1991.032035798571</v>
       </c>
       <c r="AB4" t="n">
-        <v>2608.84896985572</v>
+        <v>2724.21786951372</v>
       </c>
       <c r="AC4" t="n">
-        <v>2359.864085715216</v>
+        <v>2464.222339511123</v>
       </c>
       <c r="AD4" t="n">
-        <v>1906713.091368877</v>
+        <v>1991032.035798571</v>
       </c>
       <c r="AE4" t="n">
-        <v>2608848.96985572</v>
+        <v>2724217.869513719</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23748546503919e-06</v>
+        <v>2.279983482506541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.32777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2359864.085715216</v>
+        <v>2464222.339511123</v>
       </c>
     </row>
     <row r="5">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1753.988713152695</v>
+        <v>1838.392908928409</v>
       </c>
       <c r="AB5" t="n">
-        <v>2399.884737856298</v>
+        <v>2515.370282166946</v>
       </c>
       <c r="AC5" t="n">
-        <v>2170.843106734677</v>
+        <v>2275.306872781296</v>
       </c>
       <c r="AD5" t="n">
-        <v>1753988.713152695</v>
+        <v>1838392.908928409</v>
       </c>
       <c r="AE5" t="n">
-        <v>2399884.737856298</v>
+        <v>2515370.282166946</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285658889714113e-06</v>
+        <v>2.368739767455001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2170843.106734677</v>
+        <v>2275306.872781296</v>
       </c>
     </row>
     <row r="6">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1655.304297561993</v>
+        <v>1739.537901137115</v>
       </c>
       <c r="AB6" t="n">
-        <v>2264.860366795949</v>
+        <v>2380.11249933175</v>
       </c>
       <c r="AC6" t="n">
-        <v>2048.705272140432</v>
+        <v>2152.957902904401</v>
       </c>
       <c r="AD6" t="n">
-        <v>1655304.297561993</v>
+        <v>1739537.901137115</v>
       </c>
       <c r="AE6" t="n">
-        <v>2264860.366795949</v>
+        <v>2380112.49933175</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.315706042731691e-06</v>
+        <v>2.424099619761837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.23888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2048705.272140433</v>
+        <v>2152957.902904401</v>
       </c>
     </row>
     <row r="7">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1569.354525025876</v>
+        <v>1653.673379947019</v>
       </c>
       <c r="AB7" t="n">
-        <v>2147.260096175684</v>
+        <v>2262.628873364134</v>
       </c>
       <c r="AC7" t="n">
-        <v>1942.328606295149</v>
+        <v>2046.686749309829</v>
       </c>
       <c r="AD7" t="n">
-        <v>1569354.525025876</v>
+        <v>1653673.379947019</v>
       </c>
       <c r="AE7" t="n">
-        <v>2147260.096175684</v>
+        <v>2262628.873364134</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335302012090982e-06</v>
+        <v>2.460203871266295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.98472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1942328.606295149</v>
+        <v>2046686.749309829</v>
       </c>
     </row>
     <row r="8">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1509.102059295698</v>
+        <v>1593.42091421684</v>
       </c>
       <c r="AB8" t="n">
-        <v>2064.820014412469</v>
+        <v>2180.188791600919</v>
       </c>
       <c r="AC8" t="n">
-        <v>1867.756490230034</v>
+        <v>1972.114633244714</v>
       </c>
       <c r="AD8" t="n">
-        <v>1509102.059295698</v>
+        <v>1593420.91421684</v>
       </c>
       <c r="AE8" t="n">
-        <v>2064820.014412469</v>
+        <v>2180188.791600919</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.349509089876467e-06</v>
+        <v>2.486379453607028e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1867756.490230034</v>
+        <v>1972114.633244714</v>
       </c>
     </row>
     <row r="9">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1491.336988451441</v>
+        <v>1575.655843372583</v>
       </c>
       <c r="AB9" t="n">
-        <v>2040.513060743745</v>
+        <v>2155.881837932195</v>
       </c>
       <c r="AC9" t="n">
-        <v>1845.769358104428</v>
+        <v>1950.127501119109</v>
       </c>
       <c r="AD9" t="n">
-        <v>1491336.988451441</v>
+        <v>1575655.843372583</v>
       </c>
       <c r="AE9" t="n">
-        <v>2040513.060743744</v>
+        <v>2155881.837932195</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354081482726968e-06</v>
+        <v>2.494803778958068e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.74861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1845769.358104429</v>
+        <v>1950127.501119109</v>
       </c>
     </row>
     <row r="10">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1496.018948637651</v>
+        <v>1580.337803558794</v>
       </c>
       <c r="AB10" t="n">
-        <v>2046.919125224024</v>
+        <v>2162.287902412474</v>
       </c>
       <c r="AC10" t="n">
-        <v>1851.564036781678</v>
+        <v>1955.922179796359</v>
       </c>
       <c r="AD10" t="n">
-        <v>1496018.948637652</v>
+        <v>1580337.803558794</v>
       </c>
       <c r="AE10" t="n">
-        <v>2046919.125224024</v>
+        <v>2162287.902412474</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.354734681705611e-06</v>
+        <v>2.496007254008216e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.74305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1851564.036781678</v>
+        <v>1955922.179796359</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5237.607187572054</v>
+        <v>5383.228399839571</v>
       </c>
       <c r="AB2" t="n">
-        <v>7166.325220957726</v>
+        <v>7365.570587936629</v>
       </c>
       <c r="AC2" t="n">
-        <v>6482.381199869869</v>
+        <v>6662.610868666927</v>
       </c>
       <c r="AD2" t="n">
-        <v>5237607.187572055</v>
+        <v>5383228.399839571</v>
       </c>
       <c r="AE2" t="n">
-        <v>7166325.220957726</v>
+        <v>7365570.587936629</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.238530885504078e-07</v>
+        <v>1.293110717141512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.16944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6482381.199869869</v>
+        <v>6662610.868666926</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2809.651784408178</v>
+        <v>2906.789516325753</v>
       </c>
       <c r="AB3" t="n">
-        <v>3844.289524516047</v>
+        <v>3977.197654739964</v>
       </c>
       <c r="AC3" t="n">
-        <v>3477.395927790325</v>
+        <v>3597.619492603397</v>
       </c>
       <c r="AD3" t="n">
-        <v>2809651.784408178</v>
+        <v>2906789.516325753</v>
       </c>
       <c r="AE3" t="n">
-        <v>3844289.524516047</v>
+        <v>3977197.654739964</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034682271014386e-06</v>
+        <v>1.848384367834121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.10555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3477395.927790325</v>
+        <v>3597619.492603397</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2358.158400755437</v>
+        <v>2445.58236843211</v>
       </c>
       <c r="AB4" t="n">
-        <v>3226.536358520021</v>
+        <v>3346.1536879685</v>
       </c>
       <c r="AC4" t="n">
-        <v>2918.600256934969</v>
+        <v>3026.801476344857</v>
       </c>
       <c r="AD4" t="n">
-        <v>2358158.400755437</v>
+        <v>2445582.36843211</v>
       </c>
       <c r="AE4" t="n">
-        <v>3226536.358520021</v>
+        <v>3346153.6879685</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142851455402457e-06</v>
+        <v>2.041620721742323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.10694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2918600.256934969</v>
+        <v>3026801.476344857</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2153.011815983939</v>
+        <v>2240.350442806042</v>
       </c>
       <c r="AB5" t="n">
-        <v>2945.845750806899</v>
+        <v>3065.346313133353</v>
       </c>
       <c r="AC5" t="n">
-        <v>2664.698366870367</v>
+        <v>2772.793963248362</v>
       </c>
       <c r="AD5" t="n">
-        <v>2153011.815983939</v>
+        <v>2240350.442806042</v>
       </c>
       <c r="AE5" t="n">
-        <v>2945845.750806899</v>
+        <v>3065346.313133353</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199451610024123e-06</v>
+        <v>2.142732767391963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.20416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2664698.366870367</v>
+        <v>2772793.963248362</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2026.122038041328</v>
+        <v>2113.54591620945</v>
       </c>
       <c r="AB6" t="n">
-        <v>2772.229558643903</v>
+        <v>2891.846765622826</v>
       </c>
       <c r="AC6" t="n">
-        <v>2507.65186041555</v>
+        <v>2615.852969044211</v>
       </c>
       <c r="AD6" t="n">
-        <v>2026122.038041328</v>
+        <v>2113545.91620945</v>
       </c>
       <c r="AE6" t="n">
-        <v>2772229.558643903</v>
+        <v>2891846.765622826</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234040593404029e-06</v>
+        <v>2.204523461955633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.69583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2507651.86041555</v>
+        <v>2615852.96904421</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1943.559831099838</v>
+        <v>2030.813117067367</v>
       </c>
       <c r="AB7" t="n">
-        <v>2659.264304719052</v>
+        <v>2778.648099923128</v>
       </c>
       <c r="AC7" t="n">
-        <v>2405.467851777558</v>
+        <v>2513.457825123566</v>
       </c>
       <c r="AD7" t="n">
-        <v>1943559.831099838</v>
+        <v>2030813.117067367</v>
       </c>
       <c r="AE7" t="n">
-        <v>2659264.304719052</v>
+        <v>2778648.099923128</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.257466768511329e-06</v>
+        <v>2.246372614182845e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.36527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2405467.851777558</v>
+        <v>2513457.825123566</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1878.68652218969</v>
+        <v>1956.39672562546</v>
       </c>
       <c r="AB8" t="n">
-        <v>2570.501781459788</v>
+        <v>2676.828310132825</v>
       </c>
       <c r="AC8" t="n">
-        <v>2325.176699159175</v>
+        <v>2421.355573165877</v>
       </c>
       <c r="AD8" t="n">
-        <v>1878686.52218969</v>
+        <v>1956396.72562546</v>
       </c>
       <c r="AE8" t="n">
-        <v>2570501.781459788</v>
+        <v>2676828.310132825</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274289592246102e-06</v>
+        <v>2.276425361084265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.13611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2325176.699159175</v>
+        <v>2421355.573165877</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1811.107092529354</v>
+        <v>1898.445629842903</v>
       </c>
       <c r="AB9" t="n">
-        <v>2478.036624404496</v>
+        <v>2597.537064261222</v>
       </c>
       <c r="AC9" t="n">
-        <v>2241.536286917576</v>
+        <v>2349.631772514297</v>
       </c>
       <c r="AD9" t="n">
-        <v>1811107.092529354</v>
+        <v>1898445.629842903</v>
       </c>
       <c r="AE9" t="n">
-        <v>2478036.624404496</v>
+        <v>2597537.064261222</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.287339072339431e-06</v>
+        <v>2.299737304942377e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.9625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2241536.286917576</v>
+        <v>2349631.772514297</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1765.066889903145</v>
+        <v>1852.405427216695</v>
       </c>
       <c r="AB10" t="n">
-        <v>2415.042388020929</v>
+        <v>2534.542827877656</v>
       </c>
       <c r="AC10" t="n">
-        <v>2184.554132041491</v>
+        <v>2292.649617638212</v>
       </c>
       <c r="AD10" t="n">
-        <v>1765066.889903145</v>
+        <v>1852405.427216695</v>
       </c>
       <c r="AE10" t="n">
-        <v>2415042.388020929</v>
+        <v>2534542.827877656</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296929654094768e-06</v>
+        <v>2.316870179344122e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.8375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2184554.132041491</v>
+        <v>2292649.617638212</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1715.00947316875</v>
+        <v>1802.348010482299</v>
       </c>
       <c r="AB11" t="n">
-        <v>2346.551622067562</v>
+        <v>2466.052061924289</v>
       </c>
       <c r="AC11" t="n">
-        <v>2122.60002866332</v>
+        <v>2230.695514260041</v>
       </c>
       <c r="AD11" t="n">
-        <v>1715009.47316875</v>
+        <v>1802348.010482299</v>
       </c>
       <c r="AE11" t="n">
-        <v>2346551.622067562</v>
+        <v>2466052.061924289</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305734122591472e-06</v>
+        <v>2.332598719778511e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.72361111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2122600.02866332</v>
+        <v>2230695.514260041</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1679.806786420913</v>
+        <v>1767.145323734463</v>
       </c>
       <c r="AB12" t="n">
-        <v>2298.385753026241</v>
+        <v>2417.886192882968</v>
       </c>
       <c r="AC12" t="n">
-        <v>2079.03104256208</v>
+        <v>2187.126528158802</v>
       </c>
       <c r="AD12" t="n">
-        <v>1679806.786420913</v>
+        <v>1767145.323734463</v>
       </c>
       <c r="AE12" t="n">
-        <v>2298385.753026241</v>
+        <v>2417886.192882968</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.311236915401911e-06</v>
+        <v>2.342429057550003e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.65277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2079031.04256208</v>
+        <v>2187126.528158802</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1668.071712212346</v>
+        <v>1755.410249525895</v>
       </c>
       <c r="AB13" t="n">
-        <v>2282.329306779143</v>
+        <v>2401.829746635869</v>
       </c>
       <c r="AC13" t="n">
-        <v>2064.507001009441</v>
+        <v>2172.602486606163</v>
       </c>
       <c r="AD13" t="n">
-        <v>1668071.712212346</v>
+        <v>1755410.249525895</v>
       </c>
       <c r="AE13" t="n">
-        <v>2282329.306779143</v>
+        <v>2401829.746635869</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.313438032526087e-06</v>
+        <v>2.346361192658601e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2064507.001009441</v>
+        <v>2172602.486606163</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1672.932998138546</v>
+        <v>1760.271535452096</v>
       </c>
       <c r="AB14" t="n">
-        <v>2288.98073264817</v>
+        <v>2408.481172504897</v>
       </c>
       <c r="AC14" t="n">
-        <v>2070.523624128863</v>
+        <v>2178.619109725584</v>
       </c>
       <c r="AD14" t="n">
-        <v>1672932.998138546</v>
+        <v>1760271.535452096</v>
       </c>
       <c r="AE14" t="n">
-        <v>2288980.73264817</v>
+        <v>2408481.172504897</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313280809874361e-06</v>
+        <v>2.346080325865129e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.62777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>2070523.624128863</v>
+        <v>2178619.109725584</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1679.193053205345</v>
+        <v>1766.531590518895</v>
       </c>
       <c r="AB15" t="n">
-        <v>2297.546016164702</v>
+        <v>2417.046456021429</v>
       </c>
       <c r="AC15" t="n">
-        <v>2078.271449008028</v>
+        <v>2186.36693460475</v>
       </c>
       <c r="AD15" t="n">
-        <v>1679193.053205345</v>
+        <v>1766531.590518895</v>
       </c>
       <c r="AE15" t="n">
-        <v>2297546.016164702</v>
+        <v>2417046.456021429</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.314224145784722e-06</v>
+        <v>2.347765526625956e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.61666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2078271.449008028</v>
+        <v>2186366.93460475</v>
       </c>
     </row>
   </sheetData>
